--- a/data/hotels_by_city/Houston/Houston_shard_346.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_346.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d8680341-Reviews-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-South-Near-Pearland.h3837323.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1119 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r600593429-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8680341</t>
+  </si>
+  <si>
+    <t>600593429</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Medical visit to MD Anderson - great hotel</t>
+  </si>
+  <si>
+    <t>I needed a hotel that was close to MD Anderson and I chose this one. Great idea- wonderful staff, convenient to the hospital, shuttle that takes you right to the hospital and back, and comfortable room. I would recommend this hotel to anyone that has a medical appointment in the Medical Center. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I needed a hotel that was close to MD Anderson and I chose this one. Great idea- wonderful staff, convenient to the hospital, shuttle that takes you right to the hospital and back, and comfortable room. I would recommend this hotel to anyone that has a medical appointment in the Medical Center. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r599707840-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599707840</t>
+  </si>
+  <si>
+    <t>07/25/2018</t>
+  </si>
+  <si>
+    <t>WOW! best hotel ever</t>
+  </si>
+  <si>
+    <t>I have nothing but kudos for the staff at this location. Every person was amazing. The breakfast was ALWAYS hot, fully stocked and on time. The housekeeping was perfect. They have outside security 24/7 and two people who watch the parking lot at night. Front desk and manager were awesome. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>I have nothing but kudos for the staff at this location. Every person was amazing. The breakfast was ALWAYS hot, fully stocked and on time. The housekeeping was perfect. They have outside security 24/7 and two people who watch the parking lot at night. Front desk and manager were awesome. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r598490467-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>598490467</t>
+  </si>
+  <si>
+    <t>07/22/2018</t>
+  </si>
+  <si>
+    <t>No need to look further if you're looking for a hotel near NRG complex!</t>
+  </si>
+  <si>
+    <t>I booked this hotel after an extended search for a hotel near NRG that was reasonably priced and offered free breakfast.  This hotel exceeded my expectations.  The location was perfect and breakfast was fresh and delicious.  This hotel is fairly new (opened 2 years ago according to the desk clerk).  It's clean and fresh.  The staff were warm and welcoming when I arrived.  I was exhausted after a long day at the Dog Show and the staff helped me find local restaurants that could meet my requirements of fresh food with little wait.  Did I mention this hotel is quiet?  Despite a family reunion being held at the hotel and the usual summer vacationing families, I heard absolutely no noise in the hallways or in my room.  I make several trips to Houston each year and you can believe I'll keep this hotel at the top of my list!  You can't go wrong here!!!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I booked this hotel after an extended search for a hotel near NRG that was reasonably priced and offered free breakfast.  This hotel exceeded my expectations.  The location was perfect and breakfast was fresh and delicious.  This hotel is fairly new (opened 2 years ago according to the desk clerk).  It's clean and fresh.  The staff were warm and welcoming when I arrived.  I was exhausted after a long day at the Dog Show and the staff helped me find local restaurants that could meet my requirements of fresh food with little wait.  Did I mention this hotel is quiet?  Despite a family reunion being held at the hotel and the usual summer vacationing families, I heard absolutely no noise in the hallways or in my room.  I make several trips to Houston each year and you can believe I'll keep this hotel at the top of my list!  You can't go wrong here!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r583431268-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583431268</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>G.m. who does not care.</t>
+  </si>
+  <si>
+    <t>Was there from  5/20-5/27. Father was in v.a. hospital for hip replacement  surgery.  While there room next  to me had extremely  loud t.v. till I went down  stairs and front  desk had to call room for him to lower television.  They  told me he was really  hard of hearing,  but he needed to be wearing  hearing aids. It was almost  midnight.  Got little sleep , had to be at hospital  early  next  morning.  Next night  very  same thing  started  about  10 p.m. went down  to talk to front  desk 3 or 4 times. Security  banged on door several  minutes and  front desk called both with no  answer  from person  in room.  Got another  night with about 2 hrs sleep.  They apologized  but it wasn't there fault. They  told me to seek with general manager next morning. I let him know  what happened and he  was told by night shift  desk . He told me that it really  wasn't  his problem  basically and when I told him I had  to move  at 2 a.m. to another  room because  of  other person and asked for room to be comped for that night due to fact of having  to move he told me no and it was hotel  policy  and he couldn't  do that been coming  to this location since it opened.  He treated  me like it was my problem  and  he did  not care. There was assistant  manager standing there, he heard...Was there from  5/20-5/27. Father was in v.a. hospital for hip replacement  surgery.  While there room next  to me had extremely  loud t.v. till I went down  stairs and front  desk had to call room for him to lower television.  They  told me he was really  hard of hearing,  but he needed to be wearing  hearing aids. It was almost  midnight.  Got little sleep , had to be at hospital  early  next  morning.  Next night  very  same thing  started  about  10 p.m. went down  to talk to front  desk 3 or 4 times. Security  banged on door several  minutes and  front desk called both with no  answer  from person  in room.  Got another  night with about 2 hrs sleep.  They apologized  but it wasn't there fault. They  told me to seek with general manager next morning. I let him know  what happened and he  was told by night shift  desk . He told me that it really  wasn't  his problem  basically and when I told him I had  to move  at 2 a.m. to another  room because  of  other person and asked for room to be comped for that night due to fact of having  to move he told me no and it was hotel  policy  and he couldn't  do that been coming  to this location since it opened.  He treated  me like it was my problem  and  he did  not care. There was assistant  manager standing there, he heard  the whole  thing. That was a line of bull. His  bosses should  know  what went on. Rudest manager I have  ever dealt with.  Everything  and everyone else there was great  the whole time.  If there is  a problem  with  someone's  stay there don't  expect  anything  thing done to fix or comp  room  for reasonable  problems  because  it won't happened.   MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2018</t>
+  </si>
+  <si>
+    <t>Was there from  5/20-5/27. Father was in v.a. hospital for hip replacement  surgery.  While there room next  to me had extremely  loud t.v. till I went down  stairs and front  desk had to call room for him to lower television.  They  told me he was really  hard of hearing,  but he needed to be wearing  hearing aids. It was almost  midnight.  Got little sleep , had to be at hospital  early  next  morning.  Next night  very  same thing  started  about  10 p.m. went down  to talk to front  desk 3 or 4 times. Security  banged on door several  minutes and  front desk called both with no  answer  from person  in room.  Got another  night with about 2 hrs sleep.  They apologized  but it wasn't there fault. They  told me to seek with general manager next morning. I let him know  what happened and he  was told by night shift  desk . He told me that it really  wasn't  his problem  basically and when I told him I had  to move  at 2 a.m. to another  room because  of  other person and asked for room to be comped for that night due to fact of having  to move he told me no and it was hotel  policy  and he couldn't  do that been coming  to this location since it opened.  He treated  me like it was my problem  and  he did  not care. There was assistant  manager standing there, he heard...Was there from  5/20-5/27. Father was in v.a. hospital for hip replacement  surgery.  While there room next  to me had extremely  loud t.v. till I went down  stairs and front  desk had to call room for him to lower television.  They  told me he was really  hard of hearing,  but he needed to be wearing  hearing aids. It was almost  midnight.  Got little sleep , had to be at hospital  early  next  morning.  Next night  very  same thing  started  about  10 p.m. went down  to talk to front  desk 3 or 4 times. Security  banged on door several  minutes and  front desk called both with no  answer  from person  in room.  Got another  night with about 2 hrs sleep.  They apologized  but it wasn't there fault. They  told me to seek with general manager next morning. I let him know  what happened and he  was told by night shift  desk . He told me that it really  wasn't  his problem  basically and when I told him I had  to move  at 2 a.m. to another  room because  of  other person and asked for room to be comped for that night due to fact of having  to move he told me no and it was hotel  policy  and he couldn't  do that been coming  to this location since it opened.  He treated  me like it was my problem  and  he did  not care. There was assistant  manager standing there, he heard  the whole  thing. That was a line of bull. His  bosses should  know  what went on. Rudest manager I have  ever dealt with.  Everything  and everyone else there was great  the whole time.  If there is  a problem  with  someone's  stay there don't  expect  anything  thing done to fix or comp  room  for reasonable  problems  because  it won't happened.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r571577047-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571577047</t>
+  </si>
+  <si>
+    <t>04/06/2018</t>
+  </si>
+  <si>
+    <t>Refreshing!</t>
+  </si>
+  <si>
+    <t>From the moment we talked to Kimberly on the phone to checkout I was refreshed to stay here. We had a first floor spacious room that was very clean. Everything worked and was tastefully done. The bed was amazing, the bathroom spotless and plenty of towels-everything was so nice. But the star of this hotel is Kimberly.  She was kindhearted, efficient and told us all we needed to know. All the employees spoke to us and were friendly. The breakfast was well stocked and had a delicious egg white omelet, fresh fruit and pancakes. The housekeeping group was mopping common areas and dusting every time we saw them. The place was well-kept. I was worried since we don’t know the area, but it turned out to be a great place to stay. Job well done!MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>From the moment we talked to Kimberly on the phone to checkout I was refreshed to stay here. We had a first floor spacious room that was very clean. Everything worked and was tastefully done. The bed was amazing, the bathroom spotless and plenty of towels-everything was so nice. But the star of this hotel is Kimberly.  She was kindhearted, efficient and told us all we needed to know. All the employees spoke to us and were friendly. The breakfast was well stocked and had a delicious egg white omelet, fresh fruit and pancakes. The housekeeping group was mopping common areas and dusting every time we saw them. The place was well-kept. I was worried since we don’t know the area, but it turned out to be a great place to stay. Job well done!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r570629020-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570629020</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Stayed Here 3 times Last Month</t>
+  </si>
+  <si>
+    <t>Clean Comfortable and Conveniently located near the Medical Center. The staff are so nice and accommodating. The bed are comfortable and rooms spacious and clean. I found the breakfast as good as other free breakfast hotel buffets in the Medical Center Area.  If you don’t want to eat at hotel a Starbucks, Shipley’s, and Taco Cabana is nearby. Parking is free. My first stay was for the Houston Rodeo which was perfect as we could walk to Rodeo and not deal with the crowds trying to park.I just like this hotel and location for Medical Center trips. I stayed at The Staybridge also Crown Plaza but this is my 1st choice Health Care visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2018</t>
+  </si>
+  <si>
+    <t>Clean Comfortable and Conveniently located near the Medical Center. The staff are so nice and accommodating. The bed are comfortable and rooms spacious and clean. I found the breakfast as good as other free breakfast hotel buffets in the Medical Center Area.  If you don’t want to eat at hotel a Starbucks, Shipley’s, and Taco Cabana is nearby. Parking is free. My first stay was for the Houston Rodeo which was perfect as we could walk to Rodeo and not deal with the crowds trying to park.I just like this hotel and location for Medical Center trips. I stayed at The Staybridge also Crown Plaza but this is my 1st choice Health Care visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r559409787-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559409787</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great little stay but breakfast is not great </t>
+  </si>
+  <si>
+    <t>Great rooms clean and tidy, the beds are comfortable. Unfortunately the food for breakfast was pretty poor, the eggs appeared to be pack eggs and limited choice of healthy options. Staff are really friendly and happy to help travellers with local information MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 12, 2018</t>
+  </si>
+  <si>
+    <t>Great rooms clean and tidy, the beds are comfortable. Unfortunately the food for breakfast was pretty poor, the eggs appeared to be pack eggs and limited choice of healthy options. Staff are really friendly and happy to help travellers with local information More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r559316918-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559316918</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>New and Clean</t>
+  </si>
+  <si>
+    <t>I stayed in the Holiday Inn Express on Main St for a night out in town. The hotel is new with very clean spacious rooms, comfortable bed and clean linens. The rooms did not smell of Lysol or ammonia. The check in was quick and the front desk staff provided excellent service and knowledgeable about the billing since I booked the hotel through a third party booking.  The parking lot was well lit with a security guard patrolling the parking lot. The hotel is close to everything. I really like the hotel esp it is a new hotel. I recommended the hotel to all my friends and family. I will definitely will be staying at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>I stayed in the Holiday Inn Express on Main St for a night out in town. The hotel is new with very clean spacious rooms, comfortable bed and clean linens. The rooms did not smell of Lysol or ammonia. The check in was quick and the front desk staff provided excellent service and knowledgeable about the billing since I booked the hotel through a third party booking.  The parking lot was well lit with a security guard patrolling the parking lot. The hotel is close to everything. I really like the hotel esp it is a new hotel. I recommended the hotel to all my friends and family. I will definitely will be staying at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r549387876-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549387876</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t>Great Holiday From California to Texas</t>
+  </si>
+  <si>
+    <t>What a nice facility.  It was clean, fresh and spacious. The breakfast was quite good. The staff was professional, attentive and always friendly.  The security system worked well. Great place for families and couples.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded December 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2017</t>
+  </si>
+  <si>
+    <t>What a nice facility.  It was clean, fresh and spacious. The breakfast was quite good. The staff was professional, attentive and always friendly.  The security system worked well. Great place for families and couples.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r538677446-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538677446</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Holiday Inn I’ve stayed at! </t>
+  </si>
+  <si>
+    <t>This hotel is a great choice for the area. The rooms are very clean and well kept. Hotel facilities were exceptionally clean and welcoming. Front desk were friendly and helpful as well. Parking is great as well as proximity to food and shopping. This was a prime location for visiting the medical centers downtown and is also close to NRG. I would recommend anyone to stay here and will return! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded November 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is a great choice for the area. The rooms are very clean and well kept. Hotel facilities were exceptionally clean and welcoming. Front desk were friendly and helpful as well. Parking is great as well as proximity to food and shopping. This was a prime location for visiting the medical centers downtown and is also close to NRG. I would recommend anyone to stay here and will return! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r531080950-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>531080950</t>
+  </si>
+  <si>
+    <t>10/08/2017</t>
+  </si>
+  <si>
+    <t>Great comfortable beds</t>
+  </si>
+  <si>
+    <t>I'm a princess.  A comfortable bed is the most important thing for me.  I usually travel with a foam pad but forgot it on this trip. Well, the bed was great.  Soft but not too soft. Some HI have beds that are too hard for me. Updated hotel with a cool bathroom.  Only complaint, the light in the bathroom is too bright.  It would be nice to have a night light especially for those middle of the night trips.  the room is pitch black.  My daughter was with me and we needed a night light.  I just opened the microwave and it gave us enough and not too much light.   Everything else is standard HI.  Getting desk was very helpful and cheerful.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>I'm a princess.  A comfortable bed is the most important thing for me.  I usually travel with a foam pad but forgot it on this trip. Well, the bed was great.  Soft but not too soft. Some HI have beds that are too hard for me. Updated hotel with a cool bathroom.  Only complaint, the light in the bathroom is too bright.  It would be nice to have a night light especially for those middle of the night trips.  the room is pitch black.  My daughter was with me and we needed a night light.  I just opened the microwave and it gave us enough and not too much light.   Everything else is standard HI.  Getting desk was very helpful and cheerful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r522023674-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>522023674</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>Prices given over phone NOT prices charges @Holiday Inn Express, Main St.</t>
+  </si>
+  <si>
+    <t>We went to assist hurricane victims over the labor day weekend.  We were given a price for a hotel room over the phone, which was much higher than we normally pay at Holiday Inn hotels.  Because we had to have a place to stay in order to help w/recovery, we took the hotel, even though we felt it was price-gouging at a desperate time for the hurricane rescue workers.  Fee was about $60-80 more than we normally pay per night.  It was late when we arrived, we initialed the sign in paper and then crashed into bed.  When we received checkout paperwork several days later, the fee was another $18 more!  We questioned front desk personnel, they pulled out paper we'd signed when we arrived to show we'd signed at those rates.  BE SURE AND READ EVERYTHING AT THESE HOTELS BEFORE INITIALING!!!!  We stay frequently at Holiday Inn, but that will now change.  Breakfast was included (basic, same every morning, but good).  Serving staff in dining room were awesome, very friendly and professional.  Clean hotel. Beds comfortable. Staff provided additional towels and supplies as needed.  Our door didn't automatically lock securely...so check door to make sure it is secure before leaving.  Had deadbolt, but not added latch. Lots of police in and around area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2017</t>
+  </si>
+  <si>
+    <t>We went to assist hurricane victims over the labor day weekend.  We were given a price for a hotel room over the phone, which was much higher than we normally pay at Holiday Inn hotels.  Because we had to have a place to stay in order to help w/recovery, we took the hotel, even though we felt it was price-gouging at a desperate time for the hurricane rescue workers.  Fee was about $60-80 more than we normally pay per night.  It was late when we arrived, we initialed the sign in paper and then crashed into bed.  When we received checkout paperwork several days later, the fee was another $18 more!  We questioned front desk personnel, they pulled out paper we'd signed when we arrived to show we'd signed at those rates.  BE SURE AND READ EVERYTHING AT THESE HOTELS BEFORE INITIALING!!!!  We stay frequently at Holiday Inn, but that will now change.  Breakfast was included (basic, same every morning, but good).  Serving staff in dining room were awesome, very friendly and professional.  Clean hotel. Beds comfortable. Staff provided additional towels and supplies as needed.  Our door didn't automatically lock securely...so check door to make sure it is secure before leaving.  Had deadbolt, but not added latch. Lots of police in and around area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r513245589-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>513245589</t>
+  </si>
+  <si>
+    <t>08/15/2017</t>
+  </si>
+  <si>
+    <t>Price increased in few months</t>
+  </si>
+  <si>
+    <t>This is our usual go to place to stay while visiting MD Anderson. Employees are friendly and place is clean. We enjoy staying here but may need to change hotels in the future. When we first started staying here it was $117, but now the price has gone up to $146!!! We can stay closer to MD Anderson for cheaper than this and receive the same service and fancier accommodations. We will check back on rates in the future... but frequent trips means that every penny counts. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>This is our usual go to place to stay while visiting MD Anderson. Employees are friendly and place is clean. We enjoy staying here but may need to change hotels in the future. When we first started staying here it was $117, but now the price has gone up to $146!!! We can stay closer to MD Anderson for cheaper than this and receive the same service and fancier accommodations. We will check back on rates in the future... but frequent trips means that every penny counts. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r510680603-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510680603</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Awful customer service</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was extremely rude and had no patience. Hotel room 420 was constantly vibrating making it hard to stay in the room. When I called the front desk they said it was the laundry room and that it would end at 5pm but didn't for quite a bit past 5. Expected more from this newly renovated hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>The lady at the front desk was extremely rude and had no patience. Hotel room 420 was constantly vibrating making it hard to stay in the room. When I called the front desk they said it was the laundry room and that it would end at 5pm but didn't for quite a bit past 5. Expected more from this newly renovated hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r508883318-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>508883318</t>
+  </si>
+  <si>
+    <t>08/04/2017</t>
+  </si>
+  <si>
+    <t>Absolutely perfect hotel!</t>
+  </si>
+  <si>
+    <t>I was apprehensive about staying at the hotel. I wasn't sure because I was told the area was not very safe. This is sort of true. The hotel is extremely nice practically brand new facilities with modern fixtures and furnishings. The staff is absolutely amazing. We did not have one issue with an employee the whole time. Breakfast is included and is very good.The only thing I want to clear up is you shouldn't walk around anywhere there. It's not a very appealing area. But the hotel takes care of this with very very tight security that document the comings and goings of guests. The hotel is so clean and beautiful. The rooms are spacious with microwaves and refrigerators.  The only problem is our room had a loud air conditioner. That kind of messed us up. The other thing is every single stay we get charged double because my inlaws pay cash for their room yet our Amex is still charged every single time. It's quite annoying. I hope they stop doing that! Over all though it's a great place to stay, especially if you are going to MD Anderson. Great staff we were overall very satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>I was apprehensive about staying at the hotel. I wasn't sure because I was told the area was not very safe. This is sort of true. The hotel is extremely nice practically brand new facilities with modern fixtures and furnishings. The staff is absolutely amazing. We did not have one issue with an employee the whole time. Breakfast is included and is very good.The only thing I want to clear up is you shouldn't walk around anywhere there. It's not a very appealing area. But the hotel takes care of this with very very tight security that document the comings and goings of guests. The hotel is so clean and beautiful. The rooms are spacious with microwaves and refrigerators.  The only problem is our room had a loud air conditioner. That kind of messed us up. The other thing is every single stay we get charged double because my inlaws pay cash for their room yet our Amex is still charged every single time. It's quite annoying. I hope they stop doing that! Over all though it's a great place to stay, especially if you are going to MD Anderson. Great staff we were overall very satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r500421990-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>500421990</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>This property is very new and very nice. The rooms are nice, bathrooms are exceptional - huge shower! Great breakfast! Very nice staff. I'm here for the doctors and the hotel has a nice shuttle and dynamite driver!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>This property is very new and very nice. The rooms are nice, bathrooms are exceptional - huge shower! Great breakfast! Very nice staff. I'm here for the doctors and the hotel has a nice shuttle and dynamite driver!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r494403539-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494403539</t>
+  </si>
+  <si>
+    <t>06/19/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel, clean, and friendly staff</t>
+  </si>
+  <si>
+    <t>The hotel is new and of course very clean. The rooms stay very cold and the beds are really comfy. The breakfast was hot, fresh, and they kept it stocked. The staff was very helpful, we got in late Saturday night and wanted a place to order/deliver pizza after 10:00. I called the front desk and they gave us a name and phone number of a pizza place, which had great pizza. Then when I called the front desk the next morning asking about late checkout I talked to Norma (I think was her name)and she was very kind and helpful. My husband stays here weekly for work and we will definitely stay here every we have a family trip to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 21, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is new and of course very clean. The rooms stay very cold and the beds are really comfy. The breakfast was hot, fresh, and they kept it stocked. The staff was very helpful, we got in late Saturday night and wanted a place to order/deliver pizza after 10:00. I called the front desk and they gave us a name and phone number of a pizza place, which had great pizza. Then when I called the front desk the next morning asking about late checkout I talked to Norma (I think was her name)and she was very kind and helpful. My husband stays here weekly for work and we will definitely stay here every we have a family trip to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r491842175-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491842175</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Outstanding new hotel- probably top three out of hundreds for me.</t>
+  </si>
+  <si>
+    <t>This hotel isn't outstanding because it's new, but because it's well designed and very smart, functionally. Pros:Where do I start?Friendly, helpful desk staffComfortable bed/pillows AC that allows climate control and fan at the same timeCharging outlets at both nightstands Very modern design features (lighting, bath drains, faucets, etc)Single piece window shades that do a great job of blocking light outOn site security in parking lotVery quiet- I had a 1st floor room and didn't hear any noise at all.Cons:Ya, rightAwesome design &amp; management- I'll be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>This hotel isn't outstanding because it's new, but because it's well designed and very smart, functionally. Pros:Where do I start?Friendly, helpful desk staffComfortable bed/pillows AC that allows climate control and fan at the same timeCharging outlets at both nightstands Very modern design features (lighting, bath drains, faucets, etc)Single piece window shades that do a great job of blocking light outOn site security in parking lotVery quiet- I had a 1st floor room and didn't hear any noise at all.Cons:Ya, rightAwesome design &amp; management- I'll be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r489664526-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489664526</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Fantastic Hotel</t>
+  </si>
+  <si>
+    <t>This property was simply wonderful. Period.The lobby area is open and bright, every staff member we encountered was friendly, rooms were VERY clean, beds were extremely comfortable, breakfast options were filling, and the shuttle transportation was perfect.  While we didn't use them the fitness room and guest laundry areas were also clean and accessible. What more can I say?  We've stayed there twice already while using the nearby medical center and will be staying each time we head to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>This property was simply wonderful. Period.The lobby area is open and bright, every staff member we encountered was friendly, rooms were VERY clean, beds were extremely comfortable, breakfast options were filling, and the shuttle transportation was perfect.  While we didn't use them the fitness room and guest laundry areas were also clean and accessible. What more can I say?  We've stayed there twice already while using the nearby medical center and will be staying each time we head to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r477985017-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477985017</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Just What I Expected From Holiday Inn--Excellence</t>
+  </si>
+  <si>
+    <t>Nice and clean. Hotel lobby was bright and clean.  The front desk attendant was very friendly and accomodating.  Our room was on the first floor which was convenient.  The hallways smelled clean.  Our room was very nice. Surprisely, the complimentary breakfast was delicious--I typically not like hotel breakfast.  Check out was fast and uneventful (we checked out early). 5 stars all the way!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 24, 2017</t>
+  </si>
+  <si>
+    <t>Nice and clean. Hotel lobby was bright and clean.  The front desk attendant was very friendly and accomodating.  Our room was on the first floor which was convenient.  The hallways smelled clean.  Our room was very nice. Surprisely, the complimentary breakfast was delicious--I typically not like hotel breakfast.  Check out was fast and uneventful (we checked out early). 5 stars all the way!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r475956136-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475956136</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Great place near Stadium and Medical Center</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while in town with our small kids. Hotel is new, clean, modern, and a few blocks from the football stadium and only a few miles from Medical Center/Hermann Park/Zoo. Staff is very nice. Hotel has 24 hour security in the parking lot. Good breakfast (what you'd expect from Holiday Inn Express), and staff was constantly refilling food and emptying trash.Only issue while we were staying here was they put us in a room that the owner had reserved for our second night  our first night was on rewards points and we were paying for our second. Because the hotel chain had these on separate reservations I guess they didn't see that - although the person who checked us in said we could stay the next night (but she said she was new). The hotel fixed it and we didn't have to change rooms, hence the excellent review. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for two nights while in town with our small kids. Hotel is new, clean, modern, and a few blocks from the football stadium and only a few miles from Medical Center/Hermann Park/Zoo. Staff is very nice. Hotel has 24 hour security in the parking lot. Good breakfast (what you'd expect from Holiday Inn Express), and staff was constantly refilling food and emptying trash.Only issue while we were staying here was they put us in a room that the owner had reserved for our second night  our first night was on rewards points and we were paying for our second. Because the hotel chain had these on separate reservations I guess they didn't see that - although the person who checked us in said we could stay the next night (but she said she was new). The hotel fixed it and we didn't have to change rooms, hence the excellent review. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r469812308-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469812308</t>
+  </si>
+  <si>
+    <t>03/24/2017</t>
+  </si>
+  <si>
+    <t>Very Impressive! Surprisingly Nice &amp; Super Clean!</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the awesome condition of this Holiday Inn Express!  I don't think that the hotel is new but it looks like it has been completely remodeled or just built!  The location is perfect if your plans include M.D. Anderson or the medical center being that it is just over 2 miles away. We usually stay at other more expensive hotels in the area when we travel here, but due to the Rodeo being in town our regular hotel was full. Now that we have stayed at this hotel, and it is so nice, I may be changing our regular hotel to this one. The room was nothing short of excellent!  Very clean room, great bathroom with walk in shower, nice towels and a super powerful shower head. The bedding was what I would expect from a much nicer hotel and the bed was very comfortable. A large television, full length mirror, and coffee bar in the room added the finishing touches to give our experience a five star rating. Very impressive!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised at the awesome condition of this Holiday Inn Express!  I don't think that the hotel is new but it looks like it has been completely remodeled or just built!  The location is perfect if your plans include M.D. Anderson or the medical center being that it is just over 2 miles away. We usually stay at other more expensive hotels in the area when we travel here, but due to the Rodeo being in town our regular hotel was full. Now that we have stayed at this hotel, and it is so nice, I may be changing our regular hotel to this one. The room was nothing short of excellent!  Very clean room, great bathroom with walk in shower, nice towels and a super powerful shower head. The bedding was what I would expect from a much nicer hotel and the bed was very comfortable. A large television, full length mirror, and coffee bar in the room added the finishing touches to give our experience a five star rating. Very impressive!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r468993118-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>468993118</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Medical visit- This hotel was near medical center</t>
+  </si>
+  <si>
+    <t>This apparently is a new hotel. It was very very clean. The staff was fabulous!! The rooms were immaculate and the beds and pillows were so comfortable. The breakfast was good. They had whole fruits, omelettes, pancakes, biscuits and gravy and sauages, muffins and Cinnamon rolls. As well as cereals. They have a 24 hr coffee bar with a variety of flavored creamers.This hotel is really nice. The room we had was 357 and was at the end of the hall. But the room had a microwave and a very nice bathroom and the shampoo and conditioner and lotion they give you is Bath and Body Works. They do shuttle you to and from the medical center. But it only runs every hour. Our hotel cost us $150.93 with tax.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>This apparently is a new hotel. It was very very clean. The staff was fabulous!! The rooms were immaculate and the beds and pillows were so comfortable. The breakfast was good. They had whole fruits, omelettes, pancakes, biscuits and gravy and sauages, muffins and Cinnamon rolls. As well as cereals. They have a 24 hr coffee bar with a variety of flavored creamers.This hotel is really nice. The room we had was 357 and was at the end of the hall. But the room had a microwave and a very nice bathroom and the shampoo and conditioner and lotion they give you is Bath and Body Works. They do shuttle you to and from the medical center. But it only runs every hour. Our hotel cost us $150.93 with tax.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r467695102-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467695102</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Wonderful relaxing stay</t>
+  </si>
+  <si>
+    <t>We stayed two nights to visit family and explore Houston. The hotel is very clean, and the location is safe and convenient. Every staff member we encountered was extremely friendly, courteous, and attentive. Our room (VERY clean) faced the pool, and it was really quiet at night. The drive to museums was easy and quick! I would stay here again and without hesitation recommend to others. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>We stayed two nights to visit family and explore Houston. The hotel is very clean, and the location is safe and convenient. Every staff member we encountered was extremely friendly, courteous, and attentive. Our room (VERY clean) faced the pool, and it was really quiet at night. The drive to museums was easy and quick! I would stay here again and without hesitation recommend to others. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r458273233-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458273233</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Terrific Hotel</t>
+  </si>
+  <si>
+    <t>Modern, dare I say chic! The people couldn't be nicer, changed my mind about Holiday Inn's. All the other hotels in the area looked old and tired, this is the one you want to stay at. We stayed for the Super Bowl Weekend, so it was expensive, but the regular rates look very affordable.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Modern, dare I say chic! The people couldn't be nicer, changed my mind about Holiday Inn's. All the other hotels in the area looked old and tired, this is the one you want to stay at. We stayed for the Super Bowl Weekend, so it was expensive, but the regular rates look very affordable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r458138660-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458138660</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>Perfect for Super Bowl Weekend at NRG</t>
+  </si>
+  <si>
+    <t>We paid an astronomical rate to stay at this Holiday Inn (there is another, older Holiday Inn property right around the corner facing NRG) over Super Bowl weekend. I was very pleased with this property. It's newer so the property has a fresh, clean appearance that extends to the hallways &amp; rooms. I also liked the modern furnishings &amp; bathroom. The king bed was super comfy &amp; the room (on the 4th floor) was a good size with a small kitchenette that we utilized. It was also relatively quiet, we never heard any of the other guests. Breakfast was included &amp; offered a decent selection. The staff were very hospitable &amp; we appreciated the security on guard in the parking lot (although the area is safe in general). We were able to walk to NRG on Super Bowl Sunday within 5-7 minutes &amp; the hotel is situated to easily access the highway. Several dining options are also close by. Overall, very satisfied &amp; would highly recommend over the other Holiday Inn property in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>We paid an astronomical rate to stay at this Holiday Inn (there is another, older Holiday Inn property right around the corner facing NRG) over Super Bowl weekend. I was very pleased with this property. It's newer so the property has a fresh, clean appearance that extends to the hallways &amp; rooms. I also liked the modern furnishings &amp; bathroom. The king bed was super comfy &amp; the room (on the 4th floor) was a good size with a small kitchenette that we utilized. It was also relatively quiet, we never heard any of the other guests. Breakfast was included &amp; offered a decent selection. The staff were very hospitable &amp; we appreciated the security on guard in the parking lot (although the area is safe in general). We were able to walk to NRG on Super Bowl Sunday within 5-7 minutes &amp; the hotel is situated to easily access the highway. Several dining options are also close by. Overall, very satisfied &amp; would highly recommend over the other Holiday Inn property in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r453830497-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453830497</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t>A great option for medical center</t>
+  </si>
+  <si>
+    <t>My husband and I stayed there for one night when he was doing an interview in medical center and really liked it. It was less than 10 minutes drive from hospitals and room was clean and pleasant. Warm and nice hospitality of staff was definitely a plus. I would recommend this hotel and will stay there if I'm visiting south Houston again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed there for one night when he was doing an interview in medical center and really liked it. It was less than 10 minutes drive from hospitals and room was clean and pleasant. Warm and nice hospitality of staff was definitely a plus. I would recommend this hotel and will stay there if I'm visiting south Houston again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r451761278-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451761278</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>Very clean. Very new and modern. Very friendly, helpful staff.  Great access to Medical Center and Pearland area.  Security guard in parking lot all night. We will definitely be here again when we have an opportunity.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Very clean. Very new and modern. Very friendly, helpful staff.  Great access to Medical Center and Pearland area.  Security guard in parking lot all night. We will definitely be here again when we have an opportunity.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r451645938-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451645938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfect place </t>
+  </si>
+  <si>
+    <t>The facility is ideally located to access the medical center facilities. It is clean and quite. Has security in the parking area. The staff is most helpful and courteous. Will definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The facility is ideally located to access the medical center facilities. It is clean and quite. Has security in the parking area. The staff is most helpful and courteous. Will definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r451354265-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451354265</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>could be the best holiday inn and express</t>
+  </si>
+  <si>
+    <t>new hotel and reallu done very well.....room has bright lights   modern bathroom and bedroom features....best one I ever stayed....breakfast area and lobby are very cheery and impressive....staff is outstanding....bed comfortable and plenty of towels.....breakfast very good....really an outstanding hotel and very reasonable compared to others in area....convenient to may places....nice restaurants within 2 miles....great place to stayMoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>new hotel and reallu done very well.....room has bright lights   modern bathroom and bedroom features....best one I ever stayed....breakfast area and lobby are very cheery and impressive....staff is outstanding....bed comfortable and plenty of towels.....breakfast very good....really an outstanding hotel and very reasonable compared to others in area....convenient to may places....nice restaurants within 2 miles....great place to stayMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r442667819-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442667819</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Great value and location</t>
+  </si>
+  <si>
+    <t>Several hotels near the hospital district are overpriced and lacking in customer service. We found the holiday Inn, near MD Anderson, to be conveniently located, a great value, the room was more than adequate and all the staff members with whom we dealt were personable and professional.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2016</t>
+  </si>
+  <si>
+    <t>Several hotels near the hospital district are overpriced and lacking in customer service. We found the holiday Inn, near MD Anderson, to be conveniently located, a great value, the room was more than adequate and all the staff members with whom we dealt were personable and professional.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r436702003-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>436702003</t>
+  </si>
+  <si>
+    <t>11/12/2016</t>
+  </si>
+  <si>
+    <t>Brand New</t>
+  </si>
+  <si>
+    <t>Everything in this nice brand new Hotel is great, from the fantastic reception by the front desk staff to the lobby and the rooms.This is a really modern place with calming colours and a relaxing and functional design, the price is good for what you get.This is probably one of the best rooms I ever stay in a mid range hotel.Location is also perfect, close to the NRG Stadium, close to the Medical Center, close to downtown and easy access to major highways MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2016</t>
+  </si>
+  <si>
+    <t>Everything in this nice brand new Hotel is great, from the fantastic reception by the front desk staff to the lobby and the rooms.This is a really modern place with calming colours and a relaxing and functional design, the price is good for what you get.This is probably one of the best rooms I ever stay in a mid range hotel.Location is also perfect, close to the NRG Stadium, close to the Medical Center, close to downtown and easy access to major highways More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r429896105-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429896105</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>I stayed at this location for business in late July. The staff was great. The front desk staff was very professional and kind. The van driver was excellent. Every morning she was on time snd pleasant. Knowing that she would be part of my morning routine made me smile. The rooms are clean and quite. I would definitely recommend this hotel to all.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded October 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this location for business in late July. The staff was great. The front desk staff was very professional and kind. The van driver was excellent. Every morning she was on time snd pleasant. Knowing that she would be part of my morning routine made me smile. The rooms are clean and quite. I would definitely recommend this hotel to all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r427902624-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>427902624</t>
+  </si>
+  <si>
+    <t>10/14/2016</t>
+  </si>
+  <si>
+    <t>Can't go wrong</t>
+  </si>
+  <si>
+    <t>The hotel is new and clean.  We arrived after a Texans game.  There were many guests but it did not feel overwhelmingly crowded.  The lobby area is very spacious.  Many guests where there to access the nearby medical area which is any easy drive.  Hotel also has a shuttle to the medical area.  Hotel staff is very helpful with guests there for medical purposes.  Hallways and lobby is spacious for wheelchairs, etc.  Breakfast was great and the hotel manager walked around to make sure everyone's needs were met.  Rooms were nice, clean and comfortable.  You can't go wrong if you stay here.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r423352342-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>423352342</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Doesn't feel like a budget Hotel</t>
+  </si>
+  <si>
+    <t>New Property, Friendly Staff, Fast Wi-fi, Comfortable beds, Great shower!...The entire hotel exceeded my expectations of what a Holiday In Express should be,  for the price paid, the quality of the rooms, and the friendliness of the staff made for an experience that felt much grander then the price I paid.I was traveling on business in the medical center area, and when I return, I will absolutely stay there again based on this stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2016</t>
+  </si>
+  <si>
+    <t>New Property, Friendly Staff, Fast Wi-fi, Comfortable beds, Great shower!...The entire hotel exceeded my expectations of what a Holiday In Express should be,  for the price paid, the quality of the rooms, and the friendliness of the staff made for an experience that felt much grander then the price I paid.I was traveling on business in the medical center area, and when I return, I will absolutely stay there again based on this stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r422205467-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422205467</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent and only 4 months old</t>
+  </si>
+  <si>
+    <t>I usually like Holiday Inn Express locations and especially so when they are brand new. Nice lobby area, good Wi-Fi, free breakfast, and a great ice cream shop across the street. The rooms are excellent and the bed very comfortable. They also have in-wall USB charging next to each bed.Amenities include a pool, free parking, fitness center, and laundry. If you are coming for a Texans game the NRG Center is walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2016</t>
+  </si>
+  <si>
+    <t>I usually like Holiday Inn Express locations and especially so when they are brand new. Nice lobby area, good Wi-Fi, free breakfast, and a great ice cream shop across the street. The rooms are excellent and the bed very comfortable. They also have in-wall USB charging next to each bed.Amenities include a pool, free parking, fitness center, and laundry. If you are coming for a Texans game the NRG Center is walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r416266941-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416266941</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>From the minute we walked in the hotel we were made to feel at home. The desk associate was welcoming and friendly. The hotel is very nice and clean. In the early morning I was greeted by Porsha the night desk associate. What a great employee !!She was so friendly and helpful to me. I enjoyed just talking to her. The shuttle driver was great as well. I highly recommend this hotel if needing to stay close to the medical center !MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>From the minute we walked in the hotel we were made to feel at home. The desk associate was welcoming and friendly. The hotel is very nice and clean. In the early morning I was greeted by Porsha the night desk associate. What a great employee !!She was so friendly and helpful to me. I enjoyed just talking to her. The shuttle driver was great as well. I highly recommend this hotel if needing to stay close to the medical center !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r414958254-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>414958254</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>New and Close to NRG Stadium</t>
+  </si>
+  <si>
+    <t>Our family stayed at this hotel on a football game weekend. It is an easy twenty minute walk to the stadium.The staff is very friendly and accommodating.The hotel is brand new and clean. All the rooms have a refrigerator, flat screen tv and a couch. The rooms with two queen beds are bigger than the rooms with a king sized bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Our family stayed at this hotel on a football game weekend. It is an easy twenty minute walk to the stadium.The staff is very friendly and accommodating.The hotel is brand new and clean. All the rooms have a refrigerator, flat screen tv and a couch. The rooms with two queen beds are bigger than the rooms with a king sized bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r412939631-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412939631</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick trip to Texas Children's </t>
+  </si>
+  <si>
+    <t>Newer hotel close to the medical center and the NRG stadium.  Everything was nice and new.  All the employees were nice and accommodating.  Will definitely return in November for my Daughters next check up. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Newer hotel close to the medical center and the NRG stadium.  Everything was nice and new.  All the employees were nice and accommodating.  Will definitely return in November for my Daughters next check up. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r398157668-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>398157668</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Great Property and Great People</t>
+  </si>
+  <si>
+    <t>First time at this property and I was very impressed. Brand new property; reasonable rates and the staff were great. Would go back anytime I have to travel to this area!Free breakfast was a plus...pool was great too.....rooms were very well laid out!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>First time at this property and I was very impressed. Brand new property; reasonable rates and the staff were great. Would go back anytime I have to travel to this area!Free breakfast was a plus...pool was great too.....rooms were very well laid out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r387395607-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387395607</t>
+  </si>
+  <si>
+    <t>06/29/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Stayed here to attend Copa America game at NRG Stadium. New, clean, and quiet hotel. Very comfortable beds, Breakfast had many options, and staff was friendly and helpful. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here to attend Copa America game at NRG Stadium. New, clean, and quiet hotel. Very comfortable beds, Breakfast had many options, and staff was friendly and helpful. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r385842073-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385842073</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Brand new, comfortable and clean!</t>
+  </si>
+  <si>
+    <t>We stay here to attend a soccer game at NRG stadium. We chose this location as it was within walking distance to the venue. We were greeted with nice big smiles by the front desk staff and were treated with kindness the whole time. We were surprised on how nice the hotel was. The bed was soooooo comfortable with 2 different types of pillows. I loved the vanity mirror, perfect for a makeup addict like myself. The room had a nice Keurig coffee maker, microwave and really nice small fridge. I was not expecting all these extras! I only wished we could have stayed longer. The staff was truly friendly. If we ever go back to Houston, we will be staying here for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2016</t>
+  </si>
+  <si>
+    <t>We stay here to attend a soccer game at NRG stadium. We chose this location as it was within walking distance to the venue. We were greeted with nice big smiles by the front desk staff and were treated with kindness the whole time. We were surprised on how nice the hotel was. The bed was soooooo comfortable with 2 different types of pillows. I loved the vanity mirror, perfect for a makeup addict like myself. The room had a nice Keurig coffee maker, microwave and really nice small fridge. I was not expecting all these extras! I only wished we could have stayed longer. The staff was truly friendly. If we ever go back to Houston, we will be staying here for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r382468772-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382468772</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Loved the hotel and staff! We were there for 3 nights for the Copa America soccer games. Room was super clean and very nice. The king bed and pillows were just right! The free breakfast in the mornings had a great variety and was delicious! The staff was very friendly at check in and made it easy. There was a large group that came in before and after us and the staff was very fast and efficient to make it smooth. Check out was just as easy. It was a busy weekend but all the staff was smiling and helpful! It is a new hotel and had a very modern feel all around! We would definitely stay here again if back in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2016</t>
+  </si>
+  <si>
+    <t>Loved the hotel and staff! We were there for 3 nights for the Copa America soccer games. Room was super clean and very nice. The king bed and pillows were just right! The free breakfast in the mornings had a great variety and was delicious! The staff was very friendly at check in and made it easy. There was a large group that came in before and after us and the staff was very fast and efficient to make it smooth. Check out was just as easy. It was a busy weekend but all the staff was smiling and helpful! It is a new hotel and had a very modern feel all around! We would definitely stay here again if back in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r381989372-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381989372</t>
+  </si>
+  <si>
+    <t>06/12/2016</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>This hotel is brand new so of course everything is nice and immaculate. The check in was fast and easy and the clerk was very nice. The king bed room we got was superb and spacious. We also got to enjoy the pool which was very clean and big. Everything was amazing and we will definitely be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is brand new so of course everything is nice and immaculate. The check in was fast and easy and the clerk was very nice. The king bed room we got was superb and spacious. We also got to enjoy the pool which was very clean and big. Everything was amazing and we will definitely be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r380922762-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380922762</t>
+  </si>
+  <si>
+    <t>06/08/2016</t>
+  </si>
+  <si>
+    <t>Beautiful new fresh property!</t>
+  </si>
+  <si>
+    <t>Very enjoyable stay at this new property. Quick efficient friendly check-in. We had a nice sized room with 2 Queen size beds - very comfortable and nicely appointed. This was very convenient to the area that we needed to be in for three days so we were happy with this hotel choice. The breakfast was above average in our opinion. Each morning was something a bit different:  southwest omelets one morning with bacon, another morning there were scrambled eggs with sausage, cheese omelets another morning. Always biscuits and gravy and different breads and fresh fruit. LOVE the pancake machine. So tired of the waffle making at another hotel chain. These pancakes were quick and very tasty. One late night coming in, a staff person offered to share her pizza with us. Pretty pool although we didn't have a chance to enjoy it. Nice fitness room and media center. We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very enjoyable stay at this new property. Quick efficient friendly check-in. We had a nice sized room with 2 Queen size beds - very comfortable and nicely appointed. This was very convenient to the area that we needed to be in for three days so we were happy with this hotel choice. The breakfast was above average in our opinion. Each morning was something a bit different:  southwest omelets one morning with bacon, another morning there were scrambled eggs with sausage, cheese omelets another morning. Always biscuits and gravy and different breads and fresh fruit. LOVE the pancake machine. So tired of the waffle making at another hotel chain. These pancakes were quick and very tasty. One late night coming in, a staff person offered to share her pizza with us. Pretty pool although we didn't have a chance to enjoy it. Nice fitness room and media center. We would definitely stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1651,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1683,2868 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>70</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>127</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>133</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+      <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>136</v>
+      </c>
+      <c r="O12" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>137</v>
+      </c>
+      <c r="X12" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>141</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>143</v>
+      </c>
+      <c r="L13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>146</v>
+      </c>
+      <c r="X13" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>154</v>
+      </c>
+      <c r="X14" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>158</v>
+      </c>
+      <c r="J15" t="s">
+        <v>159</v>
+      </c>
+      <c r="K15" t="s">
+        <v>160</v>
+      </c>
+      <c r="L15" t="s">
+        <v>161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+      <c r="O15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>163</v>
+      </c>
+      <c r="X15" t="s">
+        <v>164</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>167</v>
+      </c>
+      <c r="J16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>162</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" t="s">
+        <v>180</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>184</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" t="s">
+        <v>188</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>189</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>190</v>
+      </c>
+      <c r="X18" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>194</v>
+      </c>
+      <c r="J19" t="s">
+        <v>195</v>
+      </c>
+      <c r="K19" t="s">
+        <v>196</v>
+      </c>
+      <c r="L19" t="s">
+        <v>197</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>189</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>198</v>
+      </c>
+      <c r="X19" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>201</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>202</v>
+      </c>
+      <c r="J20" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" t="s">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>211</v>
+      </c>
+      <c r="K21" t="s">
+        <v>212</v>
+      </c>
+      <c r="L21" t="s">
+        <v>213</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>214</v>
+      </c>
+      <c r="O21" t="s">
+        <v>61</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>215</v>
+      </c>
+      <c r="X21" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>219</v>
+      </c>
+      <c r="J22" t="s">
+        <v>220</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s">
+        <v>222</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>214</v>
+      </c>
+      <c r="O22" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>227</v>
+      </c>
+      <c r="J23" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" t="s">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>231</v>
+      </c>
+      <c r="O23" t="s">
+        <v>61</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>232</v>
+      </c>
+      <c r="X23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>61</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>256</v>
+      </c>
+      <c r="O27" t="s">
+        <v>180</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>265</v>
+      </c>
+      <c r="X27" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>268</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>269</v>
+      </c>
+      <c r="J28" t="s">
+        <v>270</v>
+      </c>
+      <c r="K28" t="s">
+        <v>271</v>
+      </c>
+      <c r="L28" t="s">
+        <v>272</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>273</v>
+      </c>
+      <c r="O28" t="s">
+        <v>180</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>265</v>
+      </c>
+      <c r="X28" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" t="s">
+        <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" t="s">
+        <v>279</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>273</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>277</v>
+      </c>
+      <c r="K30" t="s">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>286</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>287</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>265</v>
+      </c>
+      <c r="X30" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>289</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>290</v>
+      </c>
+      <c r="J31" t="s">
+        <v>291</v>
+      </c>
+      <c r="K31" t="s">
+        <v>292</v>
+      </c>
+      <c r="L31" t="s">
+        <v>293</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>294</v>
+      </c>
+      <c r="X31" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>297</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>298</v>
+      </c>
+      <c r="J32" t="s">
+        <v>299</v>
+      </c>
+      <c r="K32" t="s">
+        <v>300</v>
+      </c>
+      <c r="L32" t="s">
+        <v>301</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>302</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>303</v>
+      </c>
+      <c r="X32" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>306</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>307</v>
+      </c>
+      <c r="J33" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" t="s">
+        <v>310</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>312</v>
+      </c>
+      <c r="X33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>315</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>316</v>
+      </c>
+      <c r="J34" t="s">
+        <v>317</v>
+      </c>
+      <c r="K34" t="s">
+        <v>318</v>
+      </c>
+      <c r="L34" t="s">
+        <v>319</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>323</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>324</v>
+      </c>
+      <c r="J35" t="s">
+        <v>325</v>
+      </c>
+      <c r="K35" t="s">
+        <v>326</v>
+      </c>
+      <c r="L35" t="s">
+        <v>327</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>328</v>
+      </c>
+      <c r="O35" t="s">
+        <v>61</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>330</v>
+      </c>
+      <c r="J36" t="s">
+        <v>331</v>
+      </c>
+      <c r="K36" t="s">
+        <v>332</v>
+      </c>
+      <c r="L36" t="s">
+        <v>333</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>328</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>334</v>
+      </c>
+      <c r="X36" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>338</v>
+      </c>
+      <c r="J37" t="s">
+        <v>339</v>
+      </c>
+      <c r="K37" t="s">
+        <v>340</v>
+      </c>
+      <c r="L37" t="s">
+        <v>341</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>328</v>
+      </c>
+      <c r="O37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>342</v>
+      </c>
+      <c r="X37" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" t="s">
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>350</v>
+      </c>
+      <c r="X38" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" t="s">
+        <v>356</v>
+      </c>
+      <c r="L39" t="s">
+        <v>357</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>328</v>
+      </c>
+      <c r="O39" t="s">
+        <v>287</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>358</v>
+      </c>
+      <c r="X39" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>362</v>
+      </c>
+      <c r="J40" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" t="s">
+        <v>364</v>
+      </c>
+      <c r="L40" t="s">
+        <v>365</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>366</v>
+      </c>
+      <c r="O40" t="s">
+        <v>61</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>358</v>
+      </c>
+      <c r="X40" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>358</v>
+      </c>
+      <c r="X41" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>375</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>376</v>
+      </c>
+      <c r="J42" t="s">
+        <v>377</v>
+      </c>
+      <c r="K42" t="s">
+        <v>378</v>
+      </c>
+      <c r="L42" t="s">
+        <v>379</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>380</v>
+      </c>
+      <c r="O42" t="s">
+        <v>180</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>381</v>
+      </c>
+      <c r="X42" t="s">
+        <v>382</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>380</v>
+      </c>
+      <c r="O43" t="s">
+        <v>180</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>389</v>
+      </c>
+      <c r="X43" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" t="s">
+        <v>394</v>
+      </c>
+      <c r="K44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s">
+        <v>396</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>380</v>
+      </c>
+      <c r="O44" t="s">
+        <v>180</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>397</v>
+      </c>
+      <c r="X44" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>400</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>401</v>
+      </c>
+      <c r="J45" t="s">
+        <v>402</v>
+      </c>
+      <c r="K45" t="s">
+        <v>403</v>
+      </c>
+      <c r="L45" t="s">
+        <v>404</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>380</v>
+      </c>
+      <c r="O45" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>405</v>
+      </c>
+      <c r="X45" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>408</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>409</v>
+      </c>
+      <c r="J46" t="s">
+        <v>410</v>
+      </c>
+      <c r="K46" t="s">
+        <v>411</v>
+      </c>
+      <c r="L46" t="s">
+        <v>412</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>380</v>
+      </c>
+      <c r="O46" t="s">
+        <v>52</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>405</v>
+      </c>
+      <c r="X46" t="s">
+        <v>406</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_346.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_346.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="680">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,120 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r614555366-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8680341</t>
+  </si>
+  <si>
+    <t>614555366</t>
+  </si>
+  <si>
+    <t>Excellent Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here after having a bad experience at a Staybridge down the street. The front desk staff was very helpful and reassuring that the property was well cared for, clean and bug free. The amazing thing was that the staff offered me antibiotic ointment and insect bite treatment from their first aid box.  The hotel is bright and fresh. I will definitely make this my new home away from home in Houston. </t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r601483293-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>601483293</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Herbalife Extravaganza</t>
+  </si>
+  <si>
+    <t>Visited this hotel the last week in July for our annual Herbalife Extravaganza event being held at NRG Stadium. The hotel is less than a mile from the stadium and you can see the stadium from the hotel. Was about a 10-15 minute walk. We arrived before check-in time and the hotel gladly stored our bags in a locked closet so we could go explore the city and get lunch. Check-in was a breeze. The lady checking us in said that our room was not ready (even after the 3pm check-in time) but she got another available room without issue. The beds were very comfortable and the room we stayed in was spacious with a pull out couch, desk and small area with microwave and fridge. The bathroom was nice as well with a great showerhead and large vanity with enough space for all of your bathroom needs. Didn't spend much time watching TV but there seemed to be more than enough channels. The breakfast was amazing. Hot foods like eggs, omlettes, sausage, biscuits and gravy and a pancake machine. They also had all the other standards foods like cereal, bagels, danishes and oatmeal. For the event that we were traveling for, there were 26,000 people in attendance so there were a large number of people staying in our hotel as well. The breakfast was only out of things on one day. They ran out of hard boiled eggs and...Visited this hotel the last week in July for our annual Herbalife Extravaganza event being held at NRG Stadium. The hotel is less than a mile from the stadium and you can see the stadium from the hotel. Was about a 10-15 minute walk. We arrived before check-in time and the hotel gladly stored our bags in a locked closet so we could go explore the city and get lunch. Check-in was a breeze. The lady checking us in said that our room was not ready (even after the 3pm check-in time) but she got another available room without issue. The beds were very comfortable and the room we stayed in was spacious with a pull out couch, desk and small area with microwave and fridge. The bathroom was nice as well with a great showerhead and large vanity with enough space for all of your bathroom needs. Didn't spend much time watching TV but there seemed to be more than enough channels. The breakfast was amazing. Hot foods like eggs, omlettes, sausage, biscuits and gravy and a pancake machine. They also had all the other standards foods like cereal, bagels, danishes and oatmeal. For the event that we were traveling for, there were 26,000 people in attendance so there were a large number of people staying in our hotel as well. The breakfast was only out of things on one day. They ran out of hard boiled eggs and oatmeal. If I had any complaint it would be that they should have stocked up a bit more on their breakfast items due to the demand of the event. Hotel was clean, never had an issue getting towels or our beds changed. It is close to the medical center and had a free shuttle to and from there. The location was about 30 minutes away from IAH Bush airport with no traffic, 45 minutes with traffic. No shuttle to/from the airport is available. The hotel is probably about 10-15 minute ride from the downtown area. We Ubered everywhere and drivers were very nice, for the most part and knowledgeable about the area and things to do/places to eat. There was a nice pool and outdoor area to relax and sit in. It was a great stay, staff was more than nice and accommodating and I would recommend that anyone traveling in this area stay at this location!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2018</t>
+  </si>
+  <si>
+    <t>Visited this hotel the last week in July for our annual Herbalife Extravaganza event being held at NRG Stadium. The hotel is less than a mile from the stadium and you can see the stadium from the hotel. Was about a 10-15 minute walk. We arrived before check-in time and the hotel gladly stored our bags in a locked closet so we could go explore the city and get lunch. Check-in was a breeze. The lady checking us in said that our room was not ready (even after the 3pm check-in time) but she got another available room without issue. The beds were very comfortable and the room we stayed in was spacious with a pull out couch, desk and small area with microwave and fridge. The bathroom was nice as well with a great showerhead and large vanity with enough space for all of your bathroom needs. Didn't spend much time watching TV but there seemed to be more than enough channels. The breakfast was amazing. Hot foods like eggs, omlettes, sausage, biscuits and gravy and a pancake machine. They also had all the other standards foods like cereal, bagels, danishes and oatmeal. For the event that we were traveling for, there were 26,000 people in attendance so there were a large number of people staying in our hotel as well. The breakfast was only out of things on one day. They ran out of hard boiled eggs and...Visited this hotel the last week in July for our annual Herbalife Extravaganza event being held at NRG Stadium. The hotel is less than a mile from the stadium and you can see the stadium from the hotel. Was about a 10-15 minute walk. We arrived before check-in time and the hotel gladly stored our bags in a locked closet so we could go explore the city and get lunch. Check-in was a breeze. The lady checking us in said that our room was not ready (even after the 3pm check-in time) but she got another available room without issue. The beds were very comfortable and the room we stayed in was spacious with a pull out couch, desk and small area with microwave and fridge. The bathroom was nice as well with a great showerhead and large vanity with enough space for all of your bathroom needs. Didn't spend much time watching TV but there seemed to be more than enough channels. The breakfast was amazing. Hot foods like eggs, omlettes, sausage, biscuits and gravy and a pancake machine. They also had all the other standards foods like cereal, bagels, danishes and oatmeal. For the event that we were traveling for, there were 26,000 people in attendance so there were a large number of people staying in our hotel as well. The breakfast was only out of things on one day. They ran out of hard boiled eggs and oatmeal. If I had any complaint it would be that they should have stocked up a bit more on their breakfast items due to the demand of the event. Hotel was clean, never had an issue getting towels or our beds changed. It is close to the medical center and had a free shuttle to and from there. The location was about 30 minutes away from IAH Bush airport with no traffic, 45 minutes with traffic. No shuttle to/from the airport is available. The hotel is probably about 10-15 minute ride from the downtown area. We Ubered everywhere and drivers were very nice, for the most part and knowledgeable about the area and things to do/places to eat. There was a nice pool and outdoor area to relax and sit in. It was a great stay, staff was more than nice and accommodating and I would recommend that anyone traveling in this area stay at this location!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r614229062-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>614229062</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>Stayed here for football game at NRG Staidum</t>
+  </si>
+  <si>
+    <t>We stayed here Labor Day weekend for the Ole Miss Texas Tech football game. It was about a 15 minute walk to NRG stadium. Hotel was great! This property is 2 years old. Great staff and breakfast. Nice outdoor pool and plenty of room in the lobby to visit with friends. Most restaurants in walking distance are fast food...MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded yesterday</t>
+  </si>
+  <si>
+    <t>Responded yesterday</t>
+  </si>
+  <si>
+    <t>We stayed here Labor Day weekend for the Ole Miss Texas Tech football game. It was about a 15 minute walk to NRG stadium. Hotel was great! This property is 2 years old. Great staff and breakfast. Nice outdoor pool and plenty of room in the lobby to visit with friends. Most restaurants in walking distance are fast food...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r606906128-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>606906128</t>
+  </si>
+  <si>
+    <t>08/15/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay very convenient and clean</t>
+  </si>
+  <si>
+    <t>Clean hotel with friendly helpful staff. We slept wonderful in the comfy beds with soft bedding. Then woke to a great breakfast. Booked our room for our next appointment at md Anderson before we even checked out. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Clean hotel with friendly helpful staff. We slept wonderful in the comfy beds with soft bedding. Then woke to a great breakfast. Booked our room for our next appointment at md Anderson before we even checked out. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r600593429-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>8680341</t>
-  </si>
-  <si>
     <t>600593429</t>
   </si>
   <si>
@@ -171,18 +273,6 @@
     <t>I needed a hotel that was close to MD Anderson and I chose this one. Great idea- wonderful staff, convenient to the hospital, shuttle that takes you right to the hospital and back, and comfortable room. I would recommend this hotel to anyone that has a medical appointment in the Medical Center. MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded 1 week ago</t>
-  </si>
-  <si>
-    <t>Responded 1 week ago</t>
-  </si>
-  <si>
     <t>I needed a hotel that was close to MD Anderson and I chose this one. Great idea- wonderful staff, convenient to the hospital, shuttle that takes you right to the hospital and back, and comfortable room. I would recommend this hotel to anyone that has a medical appointment in the Medical Center. More</t>
   </si>
   <si>
@@ -201,13 +291,10 @@
     <t>I have nothing but kudos for the staff at this location. Every person was amazing. The breakfast was ALWAYS hot, fully stocked and on time. The housekeeping was perfect. They have outside security 24/7 and two people who watch the parking lot at night. Front desk and manager were awesome. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded July 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2018</t>
   </si>
   <si>
     <t>I have nothing but kudos for the staff at this location. Every person was amazing. The breakfast was ALWAYS hot, fully stocked and on time. The housekeeping was perfect. They have outside security 24/7 and two people who watch the parking lot at night. Front desk and manager were awesome. More</t>
@@ -231,9 +318,66 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded July 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2018</t>
+  </si>
+  <si>
     <t>I booked this hotel after an extended search for a hotel near NRG that was reasonably priced and offered free breakfast.  This hotel exceeded my expectations.  The location was perfect and breakfast was fresh and delicious.  This hotel is fairly new (opened 2 years ago according to the desk clerk).  It's clean and fresh.  The staff were warm and welcoming when I arrived.  I was exhausted after a long day at the Dog Show and the staff helped me find local restaurants that could meet my requirements of fresh food with little wait.  Did I mention this hotel is quiet?  Despite a family reunion being held at the hotel and the usual summer vacationing families, I heard absolutely no noise in the hallways or in my room.  I make several trips to Houston each year and you can believe I'll keep this hotel at the top of my list!  You can't go wrong here!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r588054307-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588054307</t>
+  </si>
+  <si>
+    <t>06/17/2018</t>
+  </si>
+  <si>
+    <t>Great hotel, even better staff!</t>
+  </si>
+  <si>
+    <t>Wow! What a great place. This hotel is very clean and well kept. The bedrooms are nice and the beds are great. The staff is friendly and Cheryl ... what an angel!!! She is truly a gem and so kind. Highly recommend this property. There is a shuttle to MD Anderson as well! Can’t go wrong.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2018</t>
+  </si>
+  <si>
+    <t>Wow! What a great place. This hotel is very clean and well kept. The bedrooms are nice and the beds are great. The staff is friendly and Cheryl ... what an angel!!! She is truly a gem and so kind. Highly recommend this property. There is a shuttle to MD Anderson as well! Can’t go wrong.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r584343664-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>584343664</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Good value, convenient to the NRG complex</t>
+  </si>
+  <si>
+    <t>I was very impressed with this hotel.  It is a short drive from the NRG center and plenty of good restaurants.  The facility is very clean and the staff was very friendly and helpful.  The room was very large, with a nice bathroom that included a bath and a shower.The complimentary breakfast was quite good and included omelettes, sausage, breads, fruit, dairy products and a full compliment of drinks.I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded June 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 6, 2018</t>
+  </si>
+  <si>
+    <t>I was very impressed with this hotel.  It is a short drive from the NRG center and plenty of good restaurants.  The facility is very clean and the staff was very friendly and helpful.  The room was very large, with a nice bathroom that included a bath and a shower.The complimentary breakfast was quite good and included omelettes, sausage, breads, fruit, dairy products and a full compliment of drinks.I would definitely stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r583431268-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -261,6 +405,30 @@
     <t>Was there from  5/20-5/27. Father was in v.a. hospital for hip replacement  surgery.  While there room next  to me had extremely  loud t.v. till I went down  stairs and front  desk had to call room for him to lower television.  They  told me he was really  hard of hearing,  but he needed to be wearing  hearing aids. It was almost  midnight.  Got little sleep , had to be at hospital  early  next  morning.  Next night  very  same thing  started  about  10 p.m. went down  to talk to front  desk 3 or 4 times. Security  banged on door several  minutes and  front desk called both with no  answer  from person  in room.  Got another  night with about 2 hrs sleep.  They apologized  but it wasn't there fault. They  told me to seek with general manager next morning. I let him know  what happened and he  was told by night shift  desk . He told me that it really  wasn't  his problem  basically and when I told him I had  to move  at 2 a.m. to another  room because  of  other person and asked for room to be comped for that night due to fact of having  to move he told me no and it was hotel  policy  and he couldn't  do that been coming  to this location since it opened.  He treated  me like it was my problem  and  he did  not care. There was assistant  manager standing there, he heard...Was there from  5/20-5/27. Father was in v.a. hospital for hip replacement  surgery.  While there room next  to me had extremely  loud t.v. till I went down  stairs and front  desk had to call room for him to lower television.  They  told me he was really  hard of hearing,  but he needed to be wearing  hearing aids. It was almost  midnight.  Got little sleep , had to be at hospital  early  next  morning.  Next night  very  same thing  started  about  10 p.m. went down  to talk to front  desk 3 or 4 times. Security  banged on door several  minutes and  front desk called both with no  answer  from person  in room.  Got another  night with about 2 hrs sleep.  They apologized  but it wasn't there fault. They  told me to seek with general manager next morning. I let him know  what happened and he  was told by night shift  desk . He told me that it really  wasn't  his problem  basically and when I told him I had  to move  at 2 a.m. to another  room because  of  other person and asked for room to be comped for that night due to fact of having  to move he told me no and it was hotel  policy  and he couldn't  do that been coming  to this location since it opened.  He treated  me like it was my problem  and  he did  not care. There was assistant  manager standing there, he heard  the whole  thing. That was a line of bull. His  bosses should  know  what went on. Rudest manager I have  ever dealt with.  Everything  and everyone else there was great  the whole time.  If there is  a problem  with  someone's  stay there don't  expect  anything  thing done to fix or comp  room  for reasonable  problems  because  it won't happened.   More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r579502697-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579502697</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical appointment </t>
+  </si>
+  <si>
+    <t>Beautiful hotel very modern! Free shuttle to medical center, free parking, free breakfast and WiFi! Important when incurring medical expenses ! Housekeepers loud and laughing too early in the morning, also some type of maintenance also going on,was awakened! Front desk Kimberly was helpful and a great help to all she encountered!MoreShow less</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded May 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2018</t>
+  </si>
+  <si>
+    <t>Beautiful hotel very modern! Free shuttle to medical center, free parking, free breakfast and WiFi! Important when incurring medical expenses ! Housekeepers loud and laughing too early in the morning, also some type of maintenance also going on,was awakened! Front desk Kimberly was helpful and a great help to all she encountered!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r571577047-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -312,6 +480,60 @@
     <t>Clean Comfortable and Conveniently located near the Medical Center. The staff are so nice and accommodating. The bed are comfortable and rooms spacious and clean. I found the breakfast as good as other free breakfast hotel buffets in the Medical Center Area.  If you don’t want to eat at hotel a Starbucks, Shipley’s, and Taco Cabana is nearby. Parking is free. My first stay was for the Houston Rodeo which was perfect as we could walk to Rodeo and not deal with the crowds trying to park.I just like this hotel and location for Medical Center trips. I stayed at The Staybridge also Crown Plaza but this is my 1st choice Health Care visits.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r570502090-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570502090</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel - Wonderful Staff</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Houston in January for a conference my wife was attending.  We stayed at this location and were delighted with our stay.  Every aspect was wonderful.  First, the property is fairly new.  That relates to a modern, clean, very nice property.  It was just great.  The rooms were spacious, and well appointed.  And as any that know my reviews know about me...cleanliness is an absolute must.  And this property was exceptionally clean.  I was thrilled.  The location is great.  If you are traveling to the medical center complexes or Reliant Stadium then this is the place to stay.  Everything you need for stays of one night to a few weeks are located just minutes away.  This is great considering the traffic issues associated with Houston.  Further, the staff was just wonderful.  Every one I encountered were just so kind and friendly.  From the manager to the cleaning crews.  All were so helpful and kind. From directions to restaurant suggestions to just friendly conversation and greeting when we were coming and going.  They really made us feel wanted and welcome.  We loved every moment of our stay.  It was just great.  Every hotel should aspire to be like this one.  Thank you to the staff and crew at this hotel for a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded April 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2018</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Houston in January for a conference my wife was attending.  We stayed at this location and were delighted with our stay.  Every aspect was wonderful.  First, the property is fairly new.  That relates to a modern, clean, very nice property.  It was just great.  The rooms were spacious, and well appointed.  And as any that know my reviews know about me...cleanliness is an absolute must.  And this property was exceptionally clean.  I was thrilled.  The location is great.  If you are traveling to the medical center complexes or Reliant Stadium then this is the place to stay.  Everything you need for stays of one night to a few weeks are located just minutes away.  This is great considering the traffic issues associated with Houston.  Further, the staff was just wonderful.  Every one I encountered were just so kind and friendly.  From the manager to the cleaning crews.  All were so helpful and kind. From directions to restaurant suggestions to just friendly conversation and greeting when we were coming and going.  They really made us feel wanted and welcome.  We loved every moment of our stay.  It was just great.  Every hotel should aspire to be like this one.  Thank you to the staff and crew at this hotel for a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r567598964-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567598964</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>New, clean hotel</t>
+  </si>
+  <si>
+    <t>We have stayed here several times, and the staff has been very accommodating.  The shuttle to MD Anderson is efficient and the breakfast is adequate.  The rooms are veryclean.  This hotel will be our choice when in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>We have stayed here several times, and the staff has been very accommodating.  The shuttle to MD Anderson is efficient and the breakfast is adequate.  The rooms are veryclean.  This hotel will be our choice when in Houston.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r559409787-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -384,6 +606,60 @@
     <t>What a nice facility.  It was clean, fresh and spacious. The breakfast was quite good. The staff was professional, attentive and always friendly.  The security system worked well. Great place for families and couples.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r540573621-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540573621</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>Close to MDA</t>
+  </si>
+  <si>
+    <t>Always very clean, rooms are quiet even when the hotel is full, reasonable prices on necessities for when you do not plan to stay in Houston overnight. Freshly cooked, fully stocked breakfasts. Always my first hotel of choice. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Always very clean, rooms are quiet even when the hotel is full, reasonable prices on necessities for when you do not plan to stay in Houston overnight. Freshly cooked, fully stocked breakfasts. Always my first hotel of choice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r540222938-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540222938</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Great Location for a Texans Game, Great Friendly Staff</t>
+  </si>
+  <si>
+    <t>My wife and I came down for a Texans game and to do some sight seeing in Houston.  The main reason we stayed here was the convenience of being close to the stadium.  The staff was very friendly and helpful with our check-in and questions. Our room was clean and updated.  The bed was softer then what I am used to but that is about the only negative I can think of. The price was comparable to others in the area, maybe a bit more per night.  If we come again we will look to stay here first. Both my wife and I were very impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded November 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2017</t>
+  </si>
+  <si>
+    <t>My wife and I came down for a Texans game and to do some sight seeing in Houston.  The main reason we stayed here was the convenience of being close to the stadium.  The staff was very friendly and helpful with our check-in and questions. Our room was clean and updated.  The bed was softer then what I am used to but that is about the only negative I can think of. The price was comparable to others in the area, maybe a bit more per night.  If we come again we will look to stay here first. Both my wife and I were very impressed.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r538677446-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -399,9 +675,6 @@
     <t>This hotel is a great choice for the area. The rooms are very clean and well kept. Hotel facilities were exceptionally clean and welcoming. Front desk were friendly and helpful as well. Parking is great as well as proximity to food and shopping. This was a prime location for visiting the medical centers downtown and is also close to NRG. I would recommend anyone to stay here and will return! MoreShow less</t>
   </si>
   <si>
-    <t>November 2017</t>
-  </si>
-  <si>
     <t>Robert G, Sales Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded November 7, 2017</t>
   </si>
   <si>
@@ -465,6 +738,54 @@
     <t>We went to assist hurricane victims over the labor day weekend.  We were given a price for a hotel room over the phone, which was much higher than we normally pay at Holiday Inn hotels.  Because we had to have a place to stay in order to help w/recovery, we took the hotel, even though we felt it was price-gouging at a desperate time for the hurricane rescue workers.  Fee was about $60-80 more than we normally pay per night.  It was late when we arrived, we initialed the sign in paper and then crashed into bed.  When we received checkout paperwork several days later, the fee was another $18 more!  We questioned front desk personnel, they pulled out paper we'd signed when we arrived to show we'd signed at those rates.  BE SURE AND READ EVERYTHING AT THESE HOTELS BEFORE INITIALING!!!!  We stay frequently at Holiday Inn, but that will now change.  Breakfast was included (basic, same every morning, but good).  Serving staff in dining room were awesome, very friendly and professional.  Clean hotel. Beds comfortable. Staff provided additional towels and supplies as needed.  Our door didn't automatically lock securely...so check door to make sure it is secure before leaving.  Had deadbolt, but not added latch. Lots of police in and around area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r520895135-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520895135</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>THEY GET NO STARS</t>
+  </si>
+  <si>
+    <t>I'm all for customer service people, having worked in hotels myself in the past, so I was polite but this was completely out of line. The people who answer the phone are very rude and the Manager Chasity hung up on me twice and put me on hold the third time. When I asked for the GM/Owner, she said Vic the owner was out and wouldn't do anything. What sparked all of this? I called and asked if they had any rooms available. The gentlemen who answered the phone said plenty of rooms were available. I told him the stay will be no less that 30 days potentially, he then asked if this was due to Hurricane Harvey and is Fema going to cover it. After saying yes the family just found out they were eligible he said they don't take it. I asked to speak with a manager then Chasity came on very rudely saying they only had 1 room for 1 night. I told her the guy said there were many rooms so which is it? When she started to elevate her voice I asked for the GM/Owner as stated above. This is not one of those privileged "I'm the only one affected" incidents. All I wanted was to speak with the owner/GM once he returned during the week. What does that have to do with Chasity? Nothing. After her rudeness I called back to speak with someone...I'm all for customer service people, having worked in hotels myself in the past, so I was polite but this was completely out of line. The people who answer the phone are very rude and the Manager Chasity hung up on me twice and put me on hold the third time. When I asked for the GM/Owner, she said Vic the owner was out and wouldn't do anything. What sparked all of this? I called and asked if they had any rooms available. The gentlemen who answered the phone said plenty of rooms were available. I told him the stay will be no less that 30 days potentially, he then asked if this was due to Hurricane Harvey and is Fema going to cover it. After saying yes the family just found out they were eligible he said they don't take it. I asked to speak with a manager then Chasity came on very rudely saying they only had 1 room for 1 night. I told her the guy said there were many rooms so which is it? When she started to elevate her voice I asked for the GM/Owner as stated above. This is not one of those privileged "I'm the only one affected" incidents. All I wanted was to speak with the owner/GM once he returned during the week. What does that have to do with Chasity? Nothing. After her rudeness I called back to speak with someone else who proceeded to tell me that me saying I will take this treatment to consumer reports and other outlets was a threat and to call IHG International. I will most definitely be doing just that sir, as well as post on all outlets availableMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2017</t>
+  </si>
+  <si>
+    <t>I'm all for customer service people, having worked in hotels myself in the past, so I was polite but this was completely out of line. The people who answer the phone are very rude and the Manager Chasity hung up on me twice and put me on hold the third time. When I asked for the GM/Owner, she said Vic the owner was out and wouldn't do anything. What sparked all of this? I called and asked if they had any rooms available. The gentlemen who answered the phone said plenty of rooms were available. I told him the stay will be no less that 30 days potentially, he then asked if this was due to Hurricane Harvey and is Fema going to cover it. After saying yes the family just found out they were eligible he said they don't take it. I asked to speak with a manager then Chasity came on very rudely saying they only had 1 room for 1 night. I told her the guy said there were many rooms so which is it? When she started to elevate her voice I asked for the GM/Owner as stated above. This is not one of those privileged "I'm the only one affected" incidents. All I wanted was to speak with the owner/GM once he returned during the week. What does that have to do with Chasity? Nothing. After her rudeness I called back to speak with someone...I'm all for customer service people, having worked in hotels myself in the past, so I was polite but this was completely out of line. The people who answer the phone are very rude and the Manager Chasity hung up on me twice and put me on hold the third time. When I asked for the GM/Owner, she said Vic the owner was out and wouldn't do anything. What sparked all of this? I called and asked if they had any rooms available. The gentlemen who answered the phone said plenty of rooms were available. I told him the stay will be no less that 30 days potentially, he then asked if this was due to Hurricane Harvey and is Fema going to cover it. After saying yes the family just found out they were eligible he said they don't take it. I asked to speak with a manager then Chasity came on very rudely saying they only had 1 room for 1 night. I told her the guy said there were many rooms so which is it? When she started to elevate her voice I asked for the GM/Owner as stated above. This is not one of those privileged "I'm the only one affected" incidents. All I wanted was to speak with the owner/GM once he returned during the week. What does that have to do with Chasity? Nothing. After her rudeness I called back to speak with someone else who proceeded to tell me that me saying I will take this treatment to consumer reports and other outlets was a threat and to call IHG International. I will most definitely be doing just that sir, as well as post on all outlets availableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r517550260-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517550260</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good customer service </t>
+  </si>
+  <si>
+    <t>We were going to traveling from Lubbock to see Coldplay in concert. I had bought a room with the pre-pay rate. Due to the hurricane we had to cancel and I figured no way would I get a refund on a pre-paid room. We called in the morning on the day we were supposed to arrive and the lady at the front desk was so nice and gave us a full refund. We will definitely stay here next time. They went out of their way to refund us when most hotels wouldn't have. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2017</t>
+  </si>
+  <si>
+    <t>We were going to traveling from Lubbock to see Coldplay in concert. I had bought a room with the pre-pay rate. Due to the hurricane we had to cancel and I figured no way would I get a refund on a pre-paid room. We called in the morning on the day we were supposed to arrive and the lady at the front desk was so nice and gave us a full refund. We will definitely stay here next time. They went out of their way to refund us when most hotels wouldn't have. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r513245589-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -504,9 +825,6 @@
     <t>The lady at the front desk was extremely rude and had no patience. Hotel room 420 was constantly vibrating making it hard to stay in the room. When I called the front desk they said it was the laundry room and that it would end at 5pm but didn't for quite a bit past 5. Expected more from this newly renovated hotel.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded August 15, 2017</t>
   </si>
   <si>
@@ -540,6 +858,63 @@
     <t>I was apprehensive about staying at the hotel. I wasn't sure because I was told the area was not very safe. This is sort of true. The hotel is extremely nice practically brand new facilities with modern fixtures and furnishings. The staff is absolutely amazing. We did not have one issue with an employee the whole time. Breakfast is included and is very good.The only thing I want to clear up is you shouldn't walk around anywhere there. It's not a very appealing area. But the hotel takes care of this with very very tight security that document the comings and goings of guests. The hotel is so clean and beautiful. The rooms are spacious with microwaves and refrigerators.  The only problem is our room had a loud air conditioner. That kind of messed us up. The other thing is every single stay we get charged double because my inlaws pay cash for their room yet our Amex is still charged every single time. It's quite annoying. I hope they stop doing that! Over all though it's a great place to stay, especially if you are going to MD Anderson. Great staff we were overall very satisfied.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r507822367-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507822367</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Looks new/ great place</t>
+  </si>
+  <si>
+    <t>Needed a place to stay since my wife had to be a the women's hospital at 5:30 and we live an hour away. Hot breakfast(eggs,bacon, biscuits and gravy etc). Looks new and was very clean and room was great. Stayed in a queen suite with sofa couch and beds were comfortable. Security on the property 24/7. Glad I chose it and would stay again. Would be good for medical center as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Needed a place to stay since my wife had to be a the women's hospital at 5:30 and we live an hour away. Hot breakfast(eggs,bacon, biscuits and gravy etc). Looks new and was very clean and room was great. Stayed in a queen suite with sofa couch and beds were comfortable. Security on the property 24/7. Glad I chose it and would stay again. Would be good for medical center as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r504877095-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504877095</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Really nice stay. Friendly staff. Close to NRG stadium</t>
+  </si>
+  <si>
+    <t>We were in town for 2 nights to attend the Manchester Derby at NRG.  Even though it was hot, we booked this hotel so we could walk to/from the stadium and avoid the traffic.  This was a great option, about 0.7 mi walk across only one major intersection with a signal.  We took Uber from the airport and there was a security guard present checking cars into the parking lot.  Nice, safe start to our stay. Every hotel staff member we encountered was smiling, friendly, helpful and accommodating.  There is a shuttle that will take hotel guests up/down main street and to the nearby medical center if you need.
+Pool looked nice and clean. There were some kids having fun there but we didn't use it. It was about 100 degrees during our stay so that's a nice option if you care to utilize it. Breakfast included with your stay but not stellar quality.  Could potentially be improved a bit if cost-effective for the hotel, but the selection of items was adequate. The main lobby, eating area and business area are clean, bright and inviting.  I thought the rate was on the high side of reasonable, but still reasonable.
+Getting around:  If you don't have a vehicle, an under $10 Uber can take you to numerous nearby spots like museum district and Rice Village. Downtown and Galleria probably more expensive but we didn't make it there.
+The fifth star: Hotel...We were in town for 2 nights to attend the Manchester Derby at NRG.  Even though it was hot, we booked this hotel so we could walk to/from the stadium and avoid the traffic.  This was a great option, about 0.7 mi walk across only one major intersection with a signal.  We took Uber from the airport and there was a security guard present checking cars into the parking lot.  Nice, safe start to our stay. Every hotel staff member we encountered was smiling, friendly, helpful and accommodating.  There is a shuttle that will take hotel guests up/down main street and to the nearby medical center if you need.Pool looked nice and clean. There were some kids having fun there but we didn't use it. It was about 100 degrees during our stay so that's a nice option if you care to utilize it. Breakfast included with your stay but not stellar quality.  Could potentially be improved a bit if cost-effective for the hotel, but the selection of items was adequate. The main lobby, eating area and business area are clean, bright and inviting.  I thought the rate was on the high side of reasonable, but still reasonable.Getting around:  If you don't have a vehicle, an under $10 Uber can take you to numerous nearby spots like museum district and Rice Village. Downtown and Galleria probably more expensive but we didn't make it there.The fifth star: Hotel management free to direct message or email me for details but there was an issue with the cleanliness of the bathroom in our hotel room.  Areas of concern were the shower, sink and tile floor.  Could possibly be just a timing issue with the bathrooms due for a deep clean.Overall:  Definitely recommended if in town for NRG stadium or the medical center.  Pleasant place with a great staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2017</t>
+  </si>
+  <si>
+    <t>We were in town for 2 nights to attend the Manchester Derby at NRG.  Even though it was hot, we booked this hotel so we could walk to/from the stadium and avoid the traffic.  This was a great option, about 0.7 mi walk across only one major intersection with a signal.  We took Uber from the airport and there was a security guard present checking cars into the parking lot.  Nice, safe start to our stay. Every hotel staff member we encountered was smiling, friendly, helpful and accommodating.  There is a shuttle that will take hotel guests up/down main street and to the nearby medical center if you need.
+Pool looked nice and clean. There were some kids having fun there but we didn't use it. It was about 100 degrees during our stay so that's a nice option if you care to utilize it. Breakfast included with your stay but not stellar quality.  Could potentially be improved a bit if cost-effective for the hotel, but the selection of items was adequate. The main lobby, eating area and business area are clean, bright and inviting.  I thought the rate was on the high side of reasonable, but still reasonable.
+Getting around:  If you don't have a vehicle, an under $10 Uber can take you to numerous nearby spots like museum district and Rice Village. Downtown and Galleria probably more expensive but we didn't make it there.
+The fifth star: Hotel...We were in town for 2 nights to attend the Manchester Derby at NRG.  Even though it was hot, we booked this hotel so we could walk to/from the stadium and avoid the traffic.  This was a great option, about 0.7 mi walk across only one major intersection with a signal.  We took Uber from the airport and there was a security guard present checking cars into the parking lot.  Nice, safe start to our stay. Every hotel staff member we encountered was smiling, friendly, helpful and accommodating.  There is a shuttle that will take hotel guests up/down main street and to the nearby medical center if you need.Pool looked nice and clean. There were some kids having fun there but we didn't use it. It was about 100 degrees during our stay so that's a nice option if you care to utilize it. Breakfast included with your stay but not stellar quality.  Could potentially be improved a bit if cost-effective for the hotel, but the selection of items was adequate. The main lobby, eating area and business area are clean, bright and inviting.  I thought the rate was on the high side of reasonable, but still reasonable.Getting around:  If you don't have a vehicle, an under $10 Uber can take you to numerous nearby spots like museum district and Rice Village. Downtown and Galleria probably more expensive but we didn't make it there.The fifth star: Hotel management free to direct message or email me for details but there was an issue with the cleanliness of the bathroom in our hotel room.  Areas of concern were the shower, sink and tile floor.  Could possibly be just a timing issue with the bathrooms due for a deep clean.Overall:  Definitely recommended if in town for NRG stadium or the medical center.  Pleasant place with a great staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r500421990-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -555,12 +930,6 @@
     <t>This property is very new and very nice. The rooms are nice, bathrooms are exceptional - huge shower! Great breakfast! Very nice staff. I'm here for the doctors and the hotel has a nice shuttle and dynamite driver!!MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Management response:Responded July 12, 2017</t>
   </si>
   <si>
@@ -621,6 +990,57 @@
     <t>This hotel isn't outstanding because it's new, but because it's well designed and very smart, functionally. Pros:Where do I start?Friendly, helpful desk staffComfortable bed/pillows AC that allows climate control and fan at the same timeCharging outlets at both nightstands Very modern design features (lighting, bath drains, faucets, etc)Single piece window shades that do a great job of blocking light outOn site security in parking lotVery quiet- I had a 1st floor room and didn't hear any noise at all.Cons:Ya, rightAwesome design &amp; management- I'll be back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r491132920-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491132920</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>Clean new modern!</t>
+  </si>
+  <si>
+    <t>Stayed for the U2 concert at NRG Stadium. Not quite comfortably walkable except we had to on the way home. Uber was less than $10. Nice, new, very clean hotel. The rooms were very modern and comfortable with a mini fridge and Keurig.  Our room wasn't ready even though it was past check in time. We just enjoyed the nice pool area in a sunny day.  Would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Stayed for the U2 concert at NRG Stadium. Not quite comfortably walkable except we had to on the way home. Uber was less than $10. Nice, new, very clean hotel. The rooms were very modern and comfortable with a mini fridge and Keurig.  Our room wasn't ready even though it was past check in time. We just enjoyed the nice pool area in a sunny day.  Would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r490207671-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490207671</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Best Holiday inn evet</t>
+  </si>
+  <si>
+    <t>This is the 4th Holiday inn suite that me and my wife stayed in USA. i think this is the best of all. Rooms are great, clean, breakfast is nice, employee is friendly , wifi is fast!  Everything is perfect. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>This is the 4th Holiday inn suite that me and my wife stayed in USA. i think this is the best of all. Rooms are great, clean, breakfast is nice, employee is friendly , wifi is fast!  Everything is perfect. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r489664526-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -696,6 +1116,54 @@
     <t>Stayed here for two nights while in town with our small kids. Hotel is new, clean, modern, and a few blocks from the football stadium and only a few miles from Medical Center/Hermann Park/Zoo. Staff is very nice. Hotel has 24 hour security in the parking lot. Good breakfast (what you'd expect from Holiday Inn Express), and staff was constantly refilling food and emptying trash.Only issue while we were staying here was they put us in a room that the owner had reserved for our second night  our first night was on rewards points and we were paying for our second. Because the hotel chain had these on separate reservations I guess they didn't see that - although the person who checked us in said we could stay the next night (but she said she was new). The hotel fixed it and we didn't have to change rooms, hence the excellent review. Would definitely stay here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r472284381-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>472284381</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Comfy beds</t>
+  </si>
+  <si>
+    <t>Very modern in style. The rooms are clean, quiet, and comfortable.  Love their showers. Our room didn't have a tub.  This wasn't a problem for us, but could be for some.  The breakfast was very generous.  Many options to choose from.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Very modern in style. The rooms are clean, quiet, and comfortable.  Love their showers. Our room didn't have a tub.  This wasn't a problem for us, but could be for some.  The breakfast was very generous.  Many options to choose from.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r471996657-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471996657</t>
+  </si>
+  <si>
+    <t>04/01/2017</t>
+  </si>
+  <si>
+    <t>Connie</t>
+  </si>
+  <si>
+    <t>2 night stay in king leisure. Nothing fancy about room but clean, good price, lighting in room and bathroom poor due to selection of bulbs I'm sure. Great full hot and cold breakfast, friendly helpful staff   Has shuttle service but did not utilize   MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2017</t>
+  </si>
+  <si>
+    <t>2 night stay in king leisure. Nothing fancy about room but clean, good price, lighting in room and bathroom poor due to selection of bulbs I'm sure. Great full hot and cold breakfast, friendly helpful staff   Has shuttle service but did not utilize   More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r469812308-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -771,6 +1239,57 @@
     <t>We stayed two nights to visit family and explore Houston. The hotel is very clean, and the location is safe and convenient. Every staff member we encountered was extremely friendly, courteous, and attentive. Our room (VERY clean) faced the pool, and it was really quiet at night. The drive to museums was easy and quick! I would stay here again and without hesitation recommend to others. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r462767115-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462767115</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel with great service!</t>
+  </si>
+  <si>
+    <t>Nice room, flat screen TV updated decor and a Keurig. Bed was comfy. Awesome service from the front desk. When my wife asked for an extra coffee pod for the Keurig the desk clerk could not find any so she phoned the manager at home and located more. That's service!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Nice room, flat screen TV updated decor and a Keurig. Bed was comfy. Awesome service from the front desk. When my wife asked for an extra coffee pod for the Keurig the desk clerk could not find any so she phoned the manager at home and located more. That's service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r459475656-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459475656</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Great Place to say</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff went over the top with wonderful attitudes.  As a patient at MD Anderson, it was so important to see such pleasant staff at the end of the day.  They were always willing to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was clean and the staff went over the top with wonderful attitudes.  As a patient at MD Anderson, it was so important to see such pleasant staff at the end of the day.  They were always willing to help.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r458273233-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -786,9 +1305,6 @@
     <t>Modern, dare I say chic! The people couldn't be nicer, changed my mind about Holiday Inn's. All the other hotels in the area looked old and tired, this is the one you want to stay at. We stayed for the Super Bowl Weekend, so it was expensive, but the regular rates look very affordable.MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>Management response:Responded February 13, 2017</t>
   </si>
   <si>
@@ -813,12 +1329,6 @@
     <t>We paid an astronomical rate to stay at this Holiday Inn (there is another, older Holiday Inn property right around the corner facing NRG) over Super Bowl weekend. I was very pleased with this property. It's newer so the property has a fresh, clean appearance that extends to the hallways &amp; rooms. I also liked the modern furnishings &amp; bathroom. The king bed was super comfy &amp; the room (on the 4th floor) was a good size with a small kitchenette that we utilized. It was also relatively quiet, we never heard any of the other guests. Breakfast was included &amp; offered a decent selection. The staff were very hospitable &amp; we appreciated the security on guard in the parking lot (although the area is safe in general). We were able to walk to NRG on Super Bowl Sunday within 5-7 minutes &amp; the hotel is situated to easily access the highway. Several dining options are also close by. Overall, very satisfied &amp; would highly recommend over the other Holiday Inn property in the area!MoreShow less</t>
   </si>
   <si>
-    <t>Management response:Responded February 16, 2017</t>
-  </si>
-  <si>
-    <t>Responded February 16, 2017</t>
-  </si>
-  <si>
     <t>We paid an astronomical rate to stay at this Holiday Inn (there is another, older Holiday Inn property right around the corner facing NRG) over Super Bowl weekend. I was very pleased with this property. It's newer so the property has a fresh, clean appearance that extends to the hallways &amp; rooms. I also liked the modern furnishings &amp; bathroom. The king bed was super comfy &amp; the room (on the 4th floor) was a good size with a small kitchenette that we utilized. It was also relatively quiet, we never heard any of the other guests. Breakfast was included &amp; offered a decent selection. The staff were very hospitable &amp; we appreciated the security on guard in the parking lot (although the area is safe in general). We were able to walk to NRG on Super Bowl Sunday within 5-7 minutes &amp; the hotel is situated to easily access the highway. Several dining options are also close by. Overall, very satisfied &amp; would highly recommend over the other Holiday Inn property in the area!More</t>
   </si>
   <si>
@@ -843,6 +1353,57 @@
     <t>My husband and I stayed there for one night when he was doing an interview in medical center and really liked it. It was less than 10 minutes drive from hospitals and room was clean and pleasant. Warm and nice hospitality of staff was definitely a plus. I would recommend this hotel and will stay there if I'm visiting south Houston again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r453081100-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453081100</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Great hotel. Great stay!</t>
+  </si>
+  <si>
+    <t>We were in Houston for a family gathering and stayed here with our two kids, for a week. The staff was friendly and helpful. The hotel facilities were clean. I used the fitness room daily and it was well equipped. The pool was pleasant to use, though k would have liked it to be open earlier than 10 am.We were upgraded to a suite and it was the perfect amount of space for us, with the sofa bed pulled out and a crib.My only complaint would have to be the breakfast as its vegetarian options were more than limited. I managed to eat well, but if you are a vegetarian, you may use your in-room fridge a bit more. I will definitely stay here again in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>We were in Houston for a family gathering and stayed here with our two kids, for a week. The staff was friendly and helpful. The hotel facilities were clean. I used the fitness room daily and it was well equipped. The pool was pleasant to use, though k would have liked it to be open earlier than 10 am.We were upgraded to a suite and it was the perfect amount of space for us, with the sofa bed pulled out and a crib.My only complaint would have to be the breakfast as its vegetarian options were more than limited. I managed to eat well, but if you are a vegetarian, you may use your in-room fridge a bit more. I will definitely stay here again in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r451915962-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451915962</t>
+  </si>
+  <si>
+    <t>01/14/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I don't have a single negative to say about this hotel. Customer service was amazing , the rooms are completely updated, the breakfast was great. We will stay here every time we come back to Houston.The mattresses in the bedroom are probably the best part of this hotel. They were like sleeping on a cloud. In the bathroom we had a floor to ceiling stand up shower, very nice. On each side of the bed there are multiple USB ports which allows multiple devices to charge at one time.There is a very nice gym and pool area, but we were not able to enjoy either.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>I don't have a single negative to say about this hotel. Customer service was amazing , the rooms are completely updated, the breakfast was great. We will stay here every time we come back to Houston.The mattresses in the bedroom are probably the best part of this hotel. They were like sleeping on a cloud. In the bathroom we had a floor to ceiling stand up shower, very nice. On each side of the bed there are multiple USB ports which allows multiple devices to charge at one time.There is a very nice gym and pool area, but we were not able to enjoy either.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r451761278-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -858,12 +1419,6 @@
     <t>Very clean. Very new and modern. Very friendly, helpful staff.  Great access to Medical Center and Pearland area.  Security guard in parking lot all night. We will definitely be here again when we have an opportunity.  MoreShow less</t>
   </si>
   <si>
-    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded January 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded January 18, 2017</t>
-  </si>
-  <si>
     <t>Very clean. Very new and modern. Very friendly, helpful staff.  Great access to Medical Center and Pearland area.  Security guard in parking lot all night. We will definitely be here again when we have an opportunity.  More</t>
   </si>
   <si>
@@ -879,9 +1434,6 @@
     <t>The facility is ideally located to access the medical center facilities. It is clean and quite. Has security in the parking area. The staff is most helpful and courteous. Will definitely stay here again. MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>The facility is ideally located to access the medical center facilities. It is clean and quite. Has security in the parking area. The staff is most helpful and courteous. Will definitely stay here again. More</t>
   </si>
   <si>
@@ -909,6 +1461,57 @@
     <t>new hotel and reallu done very well.....room has bright lights   modern bathroom and bedroom features....best one I ever stayed....breakfast area and lobby are very cheery and impressive....staff is outstanding....bed comfortable and plenty of towels.....breakfast very good....really an outstanding hotel and very reasonable compared to others in area....convenient to may places....nice restaurants within 2 miles....great place to stayMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r451006215-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>451006215</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>Great hotel stay for visits to MD Anderson</t>
+  </si>
+  <si>
+    <t>I stayed here to take my father in law to his doctors' visits at MD Anderson and came away very impressed. We stayed for 2 nights and took the shuttle every day that we were there. We were even able to use the shuttle on the day we checked out. The hotel kept our luggage locked up while we went to the hospital for a visit. This hotel is very affordable and very accommodating. We never had to wait any more than about 5 minutes on the shuttle. The breakfast was great. The hotel was very clean. The staff bent over backwards for us. We will stay here again when we have to go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I stayed here to take my father in law to his doctors' visits at MD Anderson and came away very impressed. We stayed for 2 nights and took the shuttle every day that we were there. We were even able to use the shuttle on the day we checked out. The hotel kept our luggage locked up while we went to the hospital for a visit. This hotel is very affordable and very accommodating. We never had to wait any more than about 5 minutes on the shuttle. The breakfast was great. The hotel was very clean. The staff bent over backwards for us. We will stay here again when we have to go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r446688709-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446688709</t>
+  </si>
+  <si>
+    <t>12/26/2016</t>
+  </si>
+  <si>
+    <t>Best hotel !</t>
+  </si>
+  <si>
+    <t>This hotel was just built in April 2016 and is right on Main Street which makes for easy access to the interstate and downtown area. It is also across the street from NRG arena. There is a security guard that sits in his car all day and night. Very reassuring to know someone is out there all the time keeping up with our vehicles and property .
+With it being a brand new hotel everything was perfect.  The decor was very nice,the lobby was welcoming, and more importantly the rooms were perfect. We stayed in room 234 for 2 nights. Room was spacious and the bathroom was very nice and spacious as well. The service on our second day was exceptional. 
+There are on site washers and dryers. $2.50 a load. Just make sure you pay attention to which one u are wanting to use bcuz the way they are placed can be confusing. 
+My teenager children used the workout room. Nice equipment, lots of room, cold/hot water available, and headphones available for privacy. 
+There is a free shuttle service that we used with a 3 miles radius. We used the service to take us over to restaurants and shopping on University near Rice University. The driver was very nice and was very quick in picking us up.
+make sure you tip
+Every single hotel staff was very nice and very attentive. They would bend over backwards to help us...This hotel was just built in April 2016 and is right on Main Street which makes for easy access to the interstate and downtown area. It is also across the street from NRG arena. There is a security guard that sits in his car all day and night. Very reassuring to know someone is out there all the time keeping up with our vehicles and property .With it being a brand new hotel everything was perfect.  The decor was very nice,the lobby was welcoming, and more importantly the rooms were perfect. We stayed in room 234 for 2 nights. Room was spacious and the bathroom was very nice and spacious as well. The service on our second day was exceptional. There are on site washers and dryers. $2.50 a load. Just make sure you pay attention to which one u are wanting to use bcuz the way they are placed can be confusing. My teenager children used the workout room. Nice equipment, lots of room, cold/hot water available, and headphones available for privacy. There is a free shuttle service that we used with a 3 miles radius. We used the service to take us over to restaurants and shopping on University near Rice University. The driver was very nice and was very quick in picking us up.make sure you tipEvery single hotel staff was very nice and very attentive. They would bend over backwards to help us out. There was a man that answers the phone and works at front desk that was always smiling and singing. He also said "We are here to service you."It was a pleasure to be around him! A must stay if in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was just built in April 2016 and is right on Main Street which makes for easy access to the interstate and downtown area. It is also across the street from NRG arena. There is a security guard that sits in his car all day and night. Very reassuring to know someone is out there all the time keeping up with our vehicles and property .
+With it being a brand new hotel everything was perfect.  The decor was very nice,the lobby was welcoming, and more importantly the rooms were perfect. We stayed in room 234 for 2 nights. Room was spacious and the bathroom was very nice and spacious as well. The service on our second day was exceptional. 
+There are on site washers and dryers. $2.50 a load. Just make sure you pay attention to which one u are wanting to use bcuz the way they are placed can be confusing. 
+My teenager children used the workout room. Nice equipment, lots of room, cold/hot water available, and headphones available for privacy. 
+There is a free shuttle service that we used with a 3 miles radius. We used the service to take us over to restaurants and shopping on University near Rice University. The driver was very nice and was very quick in picking us up.
+make sure you tip
+Every single hotel staff was very nice and very attentive. They would bend over backwards to help us...This hotel was just built in April 2016 and is right on Main Street which makes for easy access to the interstate and downtown area. It is also across the street from NRG arena. There is a security guard that sits in his car all day and night. Very reassuring to know someone is out there all the time keeping up with our vehicles and property .With it being a brand new hotel everything was perfect.  The decor was very nice,the lobby was welcoming, and more importantly the rooms were perfect. We stayed in room 234 for 2 nights. Room was spacious and the bathroom was very nice and spacious as well. The service on our second day was exceptional. There are on site washers and dryers. $2.50 a load. Just make sure you pay attention to which one u are wanting to use bcuz the way they are placed can be confusing. My teenager children used the workout room. Nice equipment, lots of room, cold/hot water available, and headphones available for privacy. There is a free shuttle service that we used with a 3 miles radius. We used the service to take us over to restaurants and shopping on University near Rice University. The driver was very nice and was very quick in picking us up.make sure you tipEvery single hotel staff was very nice and very attentive. They would bend over backwards to help us out. There was a man that answers the phone and works at front desk that was always smiling and singing. He also said "We are here to service you."It was a pleasure to be around him! A must stay if in the areaMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r442667819-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -987,6 +1590,48 @@
     <t>I stayed at this location for business in late July. The staff was great. The front desk staff was very professional and kind. The van driver was excellent. Every morning she was on time snd pleasant. Knowing that she would be part of my morning routine made me smile. The rooms are clean and quite. I would definitely recommend this hotel to all.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r429447075-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429447075</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Cleanest venue close to NRG</t>
+  </si>
+  <si>
+    <t>There are two HI Express locations near NRG. This one and one that is slightly closer. Chose THIS one.  It is brand new, very secure (there is parking lot security, and the evening staff is a sharp group of people). Now, if you are wondering why this place needs so much security, you may not know why people stay here. But if you are going to see an event at NRG, this is the location.They have a Tesla charger stall (two actually) that is accessible from the left or the right giving you four locations in the event of ICEing.  The beds (two queens) were comfortable, and one seemed a bit firmer than the other ... so if that is intentional, then you have your choice for personal comfort.The breakfast was better than average ... still typical morning free breakfast ... so I have to say this place is way above the $109 price you are going to pay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>There are two HI Express locations near NRG. This one and one that is slightly closer. Chose THIS one.  It is brand new, very secure (there is parking lot security, and the evening staff is a sharp group of people). Now, if you are wondering why this place needs so much security, you may not know why people stay here. But if you are going to see an event at NRG, this is the location.They have a Tesla charger stall (two actually) that is accessible from the left or the right giving you four locations in the event of ICEing.  The beds (two queens) were comfortable, and one seemed a bit firmer than the other ... so if that is intentional, then you have your choice for personal comfort.The breakfast was better than average ... still typical morning free breakfast ... so I have to say this place is way above the $109 price you are going to pay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r428278934-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428278934</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Fantastic Stay</t>
+  </si>
+  <si>
+    <t>We were really pleased with this hotel!  We were in Houston for appointments at MD Anderson and this hotel made our trip less stressful, used their free shuttle (which was a life saver) .  The hotel is very clean and they have an awesome free breakfast!  We will definitely stay again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We were really pleased with this hotel!  We were in Houston for appointments at MD Anderson and this hotel made our trip less stressful, used their free shuttle (which was a life saver) .  The hotel is very clean and they have an awesome free breakfast!  We will definitely stay again!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r427902624-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1002,9 +1647,6 @@
     <t>The hotel is new and clean.  We arrived after a Texans game.  There were many guests but it did not feel overwhelmingly crowded.  The lobby area is very spacious.  Many guests where there to access the nearby medical area which is any easy drive.  Hotel also has a shuttle to the medical area.  Hotel staff is very helpful with guests there for medical purposes.  Hallways and lobby is spacious for wheelchairs, etc.  Breakfast was great and the hotel manager walked around to make sure everyone's needs were met.  Rooms were nice, clean and comfortable.  You can't go wrong if you stay here.</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r423352342-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1695,54 @@
     <t>I usually like Holiday Inn Express locations and especially so when they are brand new. Nice lobby area, good Wi-Fi, free breakfast, and a great ice cream shop across the street. The rooms are excellent and the bed very comfortable. They also have in-wall USB charging next to each bed.Amenities include a pool, free parking, fitness center, and laundry. If you are coming for a Texans game the NRG Center is walking distance.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r420930983-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>420930983</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>New Kid on the Block</t>
+  </si>
+  <si>
+    <t>This hotel is still fairly new, so rooms and grounds are fresh and clean. Amenities are true to form for a Holiday Inn Express. Staff were friendly and helpful during our stay. Breakfast was "express" with a few hot options such as eggs, bacon, sausage, biscuits and gravy and pancakes. Bananas, apples, yogurt, cold cereal, muffins, juice and instant oatmeal rounded out the cold options. We were on a medical visit, so the shuttle service back and forth to our appointment was a plus. There is a lot of foot traffic along this portion of Main Street (which is also a busy street) where the hotel is located, but the area is gated and grounds were quiet during the day and at night. All in all, a great stay and would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leticia G, General Manager at Holiday Inn Express &amp; Suites Houston SW-Medical Ctr Area, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is still fairly new, so rooms and grounds are fresh and clean. Amenities are true to form for a Holiday Inn Express. Staff were friendly and helpful during our stay. Breakfast was "express" with a few hot options such as eggs, bacon, sausage, biscuits and gravy and pancakes. Bananas, apples, yogurt, cold cereal, muffins, juice and instant oatmeal rounded out the cold options. We were on a medical visit, so the shuttle service back and forth to our appointment was a plus. There is a lot of foot traffic along this portion of Main Street (which is also a busy street) where the hotel is located, but the area is gated and grounds were quiet during the day and at night. All in all, a great stay and would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r416655626-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>416655626</t>
+  </si>
+  <si>
+    <t>09/09/2016</t>
+  </si>
+  <si>
+    <t>An Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>Had a very nice stay in this brand new facility.  The room was clean, spacious and with amenities such as an in room safe, a pretty good size mini fridge, a Keurig brewer, plenty of storage/drawers.  The bathroom was spacious too.Hot breakfast was good.  Like the pancake machine.  Just a push of a button and you will get two pancakes in a few minutes.They also provide coffee and tea 24/7 but their hot water tank is quite small and requires their staff to refill manually.  Found it an inconvenience to have to notify the staff on duty to refill the tank.  Other than that, everything else is great with my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Had a very nice stay in this brand new facility.  The room was clean, spacious and with amenities such as an in room safe, a pretty good size mini fridge, a Keurig brewer, plenty of storage/drawers.  The bathroom was spacious too.Hot breakfast was good.  Like the pancake machine.  Just a push of a button and you will get two pancakes in a few minutes.They also provide coffee and tea 24/7 but their hot water tank is quite small and requires their staff to refill manually.  Found it an inconvenience to have to notify the staff on duty to refill the tank.  Other than that, everything else is great with my stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r416266941-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1812,51 @@
     <t>Newer hotel close to the medical center and the NRG stadium.  Everything was nice and new.  All the employees were nice and accommodating.  Will definitely return in November for my Daughters next check up. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r408435617-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>408435617</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>Excellent New Property, Very close to NRG</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night while in town for a Texans pre-season game. This property is very close to NRG Stadium, only about 1 mile away. The hotel is very nice and modern, and it is new within the last year. The room was very clean and the bed was comfortable. The staff was friendly and I was able to check in about 1.5 hours early with no issue. The complimentary breakfast was good as well. Overall I would highly recommend this property, particularly if attending an event at NRG Stadium.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here 1 night while in town for a Texans pre-season game. This property is very close to NRG Stadium, only about 1 mile away. The hotel is very nice and modern, and it is new within the last year. The room was very clean and the bed was comfortable. The staff was friendly and I was able to check in about 1.5 hours early with no issue. The complimentary breakfast was good as well. Overall I would highly recommend this property, particularly if attending an event at NRG Stadium.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r403040097-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403040097</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>New, clean and convenient to Medical Center</t>
+  </si>
+  <si>
+    <t>This hotel is a great value.  Staff is friendly and helpful, guest rooms and public areas are clean and contemporary.  Bed is very comfortable some sort of memory foam.  This is a great location for medical center appointments but not within walking distance, although I'm not sure about the shuttle service since we drove our own vehicle.  Also very close to NRG Stadium.  I don't think this location has been open very long as everything looks shiny and new.  It's a much better value than some of the other Medical Center area hotels we've stayed in.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is a great value.  Staff is friendly and helpful, guest rooms and public areas are clean and contemporary.  Bed is very comfortable some sort of memory foam.  This is a great location for medical center appointments but not within walking distance, although I'm not sure about the shuttle service since we drove our own vehicle.  Also very close to NRG Stadium.  I don't think this location has been open very long as everything looks shiny and new.  It's a much better value than some of the other Medical Center area hotels we've stayed in.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r398157668-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1137,9 +1872,6 @@
     <t>First time at this property and I was very impressed. Brand new property; reasonable rates and the staff were great. Would go back anytime I have to travel to this area!Free breakfast was a plus...pool was great too.....rooms were very well laid out!MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>First time at this property and I was very impressed. Brand new property; reasonable rates and the staff were great. Would go back anytime I have to travel to this area!Free breakfast was a plus...pool was great too.....rooms were very well laid out!More</t>
   </si>
   <si>
@@ -1194,6 +1926,54 @@
     <t>We stay here to attend a soccer game at NRG stadium. We chose this location as it was within walking distance to the venue. We were greeted with nice big smiles by the front desk staff and were treated with kindness the whole time. We were surprised on how nice the hotel was. The bed was soooooo comfortable with 2 different types of pillows. I loved the vanity mirror, perfect for a makeup addict like myself. The room had a nice Keurig coffee maker, microwave and really nice small fridge. I was not expecting all these extras! I only wished we could have stayed longer. The staff was truly friendly. If we ever go back to Houston, we will be staying here for sure!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r385308798-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385308798</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Brand new place!</t>
+  </si>
+  <si>
+    <t>The hotel itself is awesome! The staff is super friendly. The decor is modern and bright. Everything is immaculate since it's brand new. The hotel was sold out but there was still plenty of parking. The pool looked inviting but we didnt have time. It is within walking distance to NRG stadium. However, the one thing I did not like was the free breakfast. The quality of the food is very poor. If it is not packaged like cereal, yogurt, or milk then it is bad. The biscuits are chewy, the gravy for the biscuits is tasteless, the OJ tastes medicated, the sausage patties are dull. Please improve the breakfast and you'll have a 5 star review hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2016</t>
+  </si>
+  <si>
+    <t>The hotel itself is awesome! The staff is super friendly. The decor is modern and bright. Everything is immaculate since it's brand new. The hotel was sold out but there was still plenty of parking. The pool looked inviting but we didnt have time. It is within walking distance to NRG stadium. However, the one thing I did not like was the free breakfast. The quality of the food is very poor. If it is not packaged like cereal, yogurt, or milk then it is bad. The biscuits are chewy, the gravy for the biscuits is tasteless, the OJ tastes medicated, the sausage patties are dull. Please improve the breakfast and you'll have a 5 star review hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r382843208-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382843208</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Medical Appointment Visit</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of its location near the Texas Medical Center Complex.  The staff was very cordial and very helpful.  LaTanya checked us into our room.  She displayed both professionalism and friendliness during the entire process.  Later she was extremely helpful in setting up the shuttle to carry us to the medical center.  LaShon who drove us was a very careful driver and very cordial.  This facility is a class act.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel because of its location near the Texas Medical Center Complex.  The staff was very cordial and very helpful.  LaTanya checked us into our room.  She displayed both professionalism and friendliness during the entire process.  Later she was extremely helpful in setting up the shuttle to carry us to the medical center.  LaShon who drove us was a very careful driver and very cordial.  This facility is a class act.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r382468772-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -1203,9 +1983,6 @@
     <t>06/14/2016</t>
   </si>
   <si>
-    <t>Great Hotel</t>
-  </si>
-  <si>
     <t>Loved the hotel and staff! We were there for 3 nights for the Copa America soccer games. Room was super clean and very nice. The king bed and pillows were just right! The free breakfast in the mornings had a great variety and was delicious! The staff was very friendly at check in and made it easy. There was a large group that came in before and after us and the staff was very fast and efficient to make it smooth. Check out was just as easy. It was a busy weekend but all the staff was smiling and helpful! It is a new hotel and had a very modern feel all around! We would definitely stay here again if back in the area.MoreShow less</t>
   </si>
   <si>
@@ -1258,6 +2035,45 @@
   </si>
   <si>
     <t>Very enjoyable stay at this new property. Quick efficient friendly check-in. We had a nice sized room with 2 Queen size beds - very comfortable and nicely appointed. This was very convenient to the area that we needed to be in for three days so we were happy with this hotel choice. The breakfast was above average in our opinion. Each morning was something a bit different:  southwest omelets one morning with bacon, another morning there were scrambled eggs with sausage, cheese omelets another morning. Always biscuits and gravy and different breads and fresh fruit. LOVE the pancake machine. So tired of the waffle making at another hotel chain. These pancakes were quick and very tasty. One late night coming in, a staff person offered to share her pizza with us. Pretty pool although we didn't have a chance to enjoy it. Nice fitness room and media center. We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r379328767-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>379328767</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Excellent and near the Medical Center</t>
+  </si>
+  <si>
+    <t>Everything at this motel made for a good stay. The staff is friendly and helpful. The lobby is very contemporary and attractive. The rooms are quiet and clean. The complimentary breakfast has many choices. We needed to be at the Medical Center and this is convenient for that, too. MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything at this motel made for a good stay. The staff is friendly and helpful. The lobby is very contemporary and attractive. The rooms are quiet and clean. The complimentary breakfast has many choices. We needed to be at the Medical Center and this is convenient for that, too. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8680341-r376745640-Holiday_Inn_Express_Suites_Houston_SW_Medical_Ctr_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>376745640</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express- SW Medical Center</t>
+  </si>
+  <si>
+    <t>The hotel is brand new, and very clean!!  My room was very clean and had Holiday Inn's new prototype design which was nice.  The staff of the hotel were very friendly and always were willing to help. What made my trip so memorable was some of the staff (Angela, Lashon, Latanya, Phil, Terrance, and Robert) all went above and beyond to make my stay one to remember!!! I look forward to coming back soon!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>The hotel is brand new, and very clean!!  My room was very clean and had Holiday Inn's new prototype design which was nice.  The staff of the hotel were very friendly and always were willing to help. What made my trip so memorable was some of the staff (Angela, Lashon, Latanya, Phil, Terrance, and Robert) all went above and beyond to make my stay one to remember!!! I look forward to coming back soon!!!!!More</t>
   </si>
 </sst>
 </file>
@@ -1783,22 +2599,22 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>49</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>51</v>
-      </c>
-      <c r="O2" t="s">
-        <v>52</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1809,14 +2625,10 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>54</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1832,52 +2644,58 @@
         <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>51</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1893,41 +2711,43 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>5</v>
@@ -1936,13 +2756,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="X4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1958,34 +2778,34 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>61</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1997,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
         <v>78</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>79</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2019,31 +2839,35 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>81</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>82</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>84</v>
       </c>
-      <c r="L6" t="s">
-        <v>85</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
+      <c r="N6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -2054,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="X6" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
@@ -2076,34 +2900,34 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
-      </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2115,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="X7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -2137,52 +2961,56 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
         <v>98</v>
       </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="s">
         <v>99</v>
-      </c>
-      <c r="J8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>103</v>
-      </c>
-      <c r="O8" t="s">
-        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
@@ -2198,56 +3026,52 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
         <v>107</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>108</v>
       </c>
-      <c r="J9" t="s">
-        <v>109</v>
-      </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" t="n">
-        <v>5</v>
-      </c>
-      <c r="N9" t="s">
-        <v>112</v>
-      </c>
       <c r="O9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="X9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="Y9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
@@ -2263,35 +3087,31 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
         <v>114</v>
       </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>115</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>116</v>
       </c>
-      <c r="K10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" t="s">
-        <v>118</v>
-      </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
-      <c r="N10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" t="s">
-        <v>61</v>
-      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2302,13 +3122,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
         <v>119</v>
-      </c>
-      <c r="X10" t="s">
-        <v>120</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="11">
@@ -2324,34 +3144,34 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
         <v>122</v>
       </c>
-      <c r="G11" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>123</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>124</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>125</v>
       </c>
-      <c r="L11" t="s">
-        <v>126</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>127</v>
-      </c>
       <c r="O11" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2363,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
         <v>128</v>
-      </c>
-      <c r="X11" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="12">
@@ -2385,56 +3205,52 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
         <v>131</v>
       </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>132</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>133</v>
       </c>
-      <c r="K12" t="s">
-        <v>134</v>
-      </c>
-      <c r="L12" t="s">
-        <v>135</v>
-      </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Y12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
@@ -2450,42 +3266,34 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
         <v>140</v>
       </c>
-      <c r="G13" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>141</v>
       </c>
-      <c r="J13" t="s">
-        <v>142</v>
-      </c>
-      <c r="K13" t="s">
-        <v>143</v>
-      </c>
-      <c r="L13" t="s">
-        <v>144</v>
-      </c>
       <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>145</v>
-      </c>
-      <c r="O13" t="s">
-        <v>52</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="s"/>
@@ -2493,13 +3301,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
@@ -2515,31 +3323,35 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
         <v>149</v>
       </c>
-      <c r="G14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>150</v>
       </c>
-      <c r="J14" t="s">
-        <v>151</v>
-      </c>
-      <c r="K14" t="s">
-        <v>152</v>
-      </c>
-      <c r="L14" t="s">
-        <v>153</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" t="s"/>
-      <c r="O14" t="s"/>
+      <c r="O14" t="s">
+        <v>51</v>
+      </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
@@ -2550,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Y14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
@@ -2572,52 +3384,58 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+      <c r="K15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s">
         <v>157</v>
       </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>158</v>
       </c>
-      <c r="J15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K15" t="s">
-        <v>160</v>
-      </c>
-      <c r="L15" t="s">
-        <v>161</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>162</v>
-      </c>
       <c r="O15" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="X15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Y15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
@@ -2633,38 +3451,36 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
         <v>166</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>167</v>
       </c>
-      <c r="J16" t="s">
+      <c r="O16" t="s">
         <v>168</v>
       </c>
-      <c r="K16" t="s">
-        <v>169</v>
-      </c>
-      <c r="L16" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>162</v>
-      </c>
-      <c r="O16" t="s">
-        <v>52</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="n">
         <v>5</v>
@@ -2678,13 +3494,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" t="s">
         <v>171</v>
-      </c>
-      <c r="X16" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17">
@@ -2700,34 +3516,34 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
         <v>174</v>
       </c>
-      <c r="G17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>175</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>176</v>
       </c>
-      <c r="K17" t="s">
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
         <v>177</v>
       </c>
-      <c r="L17" t="s">
-        <v>178</v>
-      </c>
-      <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>179</v>
-      </c>
       <c r="O17" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2739,13 +3555,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
@@ -2761,52 +3577,56 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
         <v>184</v>
       </c>
-      <c r="G18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>185</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
         <v>186</v>
       </c>
-      <c r="K18" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18" t="s">
-        <v>188</v>
-      </c>
-      <c r="M18" t="n">
-        <v>5</v>
-      </c>
-      <c r="N18" t="s">
-        <v>189</v>
-      </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
@@ -2822,7 +3642,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2831,47 +3651,43 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="J19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
       <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="X19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
@@ -2887,31 +3703,35 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>201</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
-        <v>202</v>
-      </c>
-      <c r="J20" t="s">
-        <v>203</v>
-      </c>
-      <c r="K20" t="s">
-        <v>204</v>
-      </c>
-      <c r="L20" t="s">
-        <v>205</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s"/>
-      <c r="O20" t="s"/>
+      <c r="O20" t="s">
+        <v>168</v>
+      </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
@@ -2922,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21">
@@ -2944,52 +3764,58 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
         <v>209</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>210</v>
       </c>
-      <c r="J21" t="s">
-        <v>211</v>
-      </c>
-      <c r="K21" t="s">
-        <v>212</v>
-      </c>
-      <c r="L21" t="s">
-        <v>213</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>214</v>
-      </c>
       <c r="O21" t="s">
-        <v>61</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
@@ -3005,34 +3831,34 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
         <v>218</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
-        <v>219</v>
-      </c>
-      <c r="J22" t="s">
-        <v>220</v>
-      </c>
-      <c r="K22" t="s">
-        <v>221</v>
-      </c>
-      <c r="L22" t="s">
-        <v>222</v>
-      </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3044,13 +3870,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="X22" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Y22" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
@@ -3066,52 +3892,56 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>222</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>223</v>
+      </c>
+      <c r="J23" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" t="s">
+        <v>225</v>
+      </c>
+      <c r="L23" t="s">
         <v>226</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>227</v>
       </c>
-      <c r="J23" t="s">
-        <v>228</v>
-      </c>
-      <c r="K23" t="s">
-        <v>229</v>
-      </c>
-      <c r="L23" t="s">
-        <v>230</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>231</v>
-      </c>
       <c r="O23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
@@ -3127,38 +3957,42 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
+        <v>231</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>232</v>
+      </c>
+      <c r="J24" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s">
+        <v>234</v>
+      </c>
+      <c r="L24" t="s">
         <v>235</v>
       </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" t="s">
-        <v>46</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>236</v>
       </c>
-      <c r="J24" t="s">
-        <v>237</v>
-      </c>
-      <c r="K24" t="s">
-        <v>238</v>
-      </c>
-      <c r="L24" t="s">
-        <v>239</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>231</v>
-      </c>
       <c r="O24" t="s">
-        <v>61</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
       <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="s"/>
@@ -3166,13 +4000,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -3188,34 +4022,34 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" t="s">
         <v>243</v>
       </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" t="s">
-        <v>46</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L25" t="s">
         <v>244</v>
       </c>
-      <c r="J25" t="s">
-        <v>245</v>
-      </c>
-      <c r="K25" t="s">
-        <v>246</v>
-      </c>
-      <c r="L25" t="s">
-        <v>247</v>
-      </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3227,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
@@ -3249,58 +4083,52 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>248</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
         <v>251</v>
       </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="L26" t="s">
         <v>252</v>
       </c>
-      <c r="J26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>201</v>
+      </c>
+      <c r="O26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
         <v>253</v>
       </c>
-      <c r="K26" t="s">
+      <c r="X26" t="s">
         <v>254</v>
       </c>
-      <c r="L26" t="s">
+      <c r="Y26" t="s">
         <v>255</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>256</v>
-      </c>
-      <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
-      <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="s">
-        <v>257</v>
-      </c>
-      <c r="X26" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="27">
@@ -3316,56 +4144,48 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" t="s">
+        <v>258</v>
+      </c>
+      <c r="K27" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" t="s">
         <v>260</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>261</v>
-      </c>
-      <c r="J27" t="s">
-        <v>262</v>
-      </c>
-      <c r="K27" t="s">
-        <v>263</v>
-      </c>
-      <c r="L27" t="s">
-        <v>264</v>
-      </c>
       <c r="M27" t="n">
-        <v>5</v>
-      </c>
-      <c r="N27" t="s">
-        <v>256</v>
-      </c>
-      <c r="O27" t="s">
-        <v>180</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
@@ -3381,34 +4201,34 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>265</v>
+      </c>
+      <c r="J28" t="s">
+        <v>266</v>
+      </c>
+      <c r="K28" t="s">
+        <v>267</v>
+      </c>
+      <c r="L28" t="s">
         <v>268</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
-        <v>269</v>
-      </c>
-      <c r="J28" t="s">
-        <v>270</v>
-      </c>
-      <c r="K28" t="s">
-        <v>271</v>
-      </c>
-      <c r="L28" t="s">
-        <v>272</v>
-      </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3420,13 +4240,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="X28" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Y28" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -3442,52 +4262,58 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
         <v>275</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>276</v>
       </c>
-      <c r="J29" t="s">
-        <v>277</v>
-      </c>
-      <c r="K29" t="s">
-        <v>278</v>
-      </c>
-      <c r="L29" t="s">
-        <v>279</v>
-      </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>51</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
@@ -3503,34 +4329,34 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>282</v>
+      </c>
+      <c r="K30" t="s">
         <v>283</v>
       </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>284</v>
       </c>
-      <c r="J30" t="s">
-        <v>277</v>
-      </c>
-      <c r="K30" t="s">
-        <v>285</v>
-      </c>
-      <c r="L30" t="s">
-        <v>286</v>
-      </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="O30" t="s">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3542,13 +4368,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="X30" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="Y30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
@@ -3564,41 +4390,43 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
         <v>289</v>
       </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>290</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>291</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>292</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
         <v>293</v>
       </c>
-      <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s">
-        <v>273</v>
-      </c>
       <c r="O31" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3650,37 +4478,31 @@
         <v>301</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
+        <v>302</v>
+      </c>
+      <c r="X32" t="s">
         <v>303</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>304</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="33">
@@ -3696,34 +4518,34 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
         <v>306</v>
       </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>307</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>308</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>309</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>310</v>
       </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>311</v>
-      </c>
       <c r="O33" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3735,13 +4557,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
+        <v>311</v>
+      </c>
+      <c r="X33" t="s">
         <v>312</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>313</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="34">
@@ -3757,48 +4579,56 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
+        <v>314</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
         <v>315</v>
       </c>
-      <c r="G34" t="s">
-        <v>45</v>
-      </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>316</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>317</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>318</v>
       </c>
-      <c r="L34" t="s">
-        <v>319</v>
-      </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
+      <c r="N34" t="s">
+        <v>310</v>
+      </c>
+      <c r="O34" t="s">
+        <v>51</v>
+      </c>
       <c r="P34" t="s"/>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
+        <v>319</v>
+      </c>
+      <c r="X34" t="s">
         <v>320</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>321</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="35">
@@ -3814,54 +4644,52 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
         <v>323</v>
       </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>324</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>325</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>326</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
         <v>327</v>
       </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s">
-        <v>328</v>
-      </c>
       <c r="O35" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
       <c r="Y35" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="36">
@@ -3877,7 +4705,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3886,47 +4714,43 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="J36" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="K36" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L36" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="O36" t="s">
-        <v>52</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="X36" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Y36" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
@@ -3942,7 +4766,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3951,26 +4775,22 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J37" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K37" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L37" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
-      <c r="N37" t="s">
-        <v>328</v>
-      </c>
-      <c r="O37" t="s">
-        <v>61</v>
-      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
       <c r="R37" t="s"/>
@@ -3981,13 +4801,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="X37" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="38">
@@ -4003,7 +4823,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -4012,25 +4832,25 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="O38" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4042,13 +4862,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="X38" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Y38" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39">
@@ -4064,7 +4884,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4073,25 +4893,25 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="J39" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K39" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L39" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="O39" t="s">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4103,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="X39" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Y39" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="40">
@@ -4125,7 +4945,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -4134,25 +4954,25 @@
         <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="J40" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4164,13 +4984,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="X40" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="Y40" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41">
@@ -4186,7 +5006,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4195,47 +5015,43 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="O41" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="X41" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="Y41" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42">
@@ -4251,7 +5067,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4260,25 +5076,25 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="J42" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="K42" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L42" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="O42" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4290,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="X42" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="Y42" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
@@ -4312,7 +5128,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4321,25 +5137,25 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
+        <v>390</v>
+      </c>
+      <c r="J43" t="s">
+        <v>391</v>
+      </c>
+      <c r="K43" t="s">
+        <v>392</v>
+      </c>
+      <c r="L43" t="s">
+        <v>393</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>385</v>
       </c>
-      <c r="J43" t="s">
-        <v>386</v>
-      </c>
-      <c r="K43" t="s">
-        <v>387</v>
-      </c>
-      <c r="L43" t="s">
-        <v>388</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s">
-        <v>380</v>
-      </c>
       <c r="O43" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4351,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="X43" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44">
@@ -4373,7 +5189,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4382,25 +5198,25 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="O44" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4412,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="X44" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="Y44" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45">
@@ -4434,7 +5250,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4443,43 +5259,49 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="J45" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K45" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L45" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="O45" t="s">
-        <v>180</v>
-      </c>
-      <c r="P45" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
       <c r="Q45" t="s"/>
       <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="X45" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Y45" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="46">
@@ -4495,7 +5317,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4504,47 +5326,2238 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="K46" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="L46" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
-      <c r="N46" t="s">
-        <v>380</v>
-      </c>
-      <c r="O46" t="s">
-        <v>52</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="s"/>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="X46" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>422</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>423</v>
+      </c>
+      <c r="J47" t="s">
+        <v>424</v>
+      </c>
+      <c r="K47" t="s">
+        <v>425</v>
+      </c>
+      <c r="L47" t="s">
+        <v>426</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s">
+        <v>76</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>427</v>
+      </c>
+      <c r="X47" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>430</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>431</v>
+      </c>
+      <c r="J48" t="s">
+        <v>432</v>
+      </c>
+      <c r="K48" t="s">
+        <v>433</v>
+      </c>
+      <c r="L48" t="s">
+        <v>434</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>410</v>
+      </c>
+      <c r="O48" t="s">
+        <v>168</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>419</v>
+      </c>
+      <c r="X48" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>436</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>437</v>
+      </c>
+      <c r="J49" t="s">
+        <v>438</v>
+      </c>
+      <c r="K49" t="s">
+        <v>439</v>
+      </c>
+      <c r="L49" t="s">
+        <v>440</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>441</v>
+      </c>
+      <c r="O49" t="s">
+        <v>168</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>419</v>
+      </c>
+      <c r="X49" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>444</v>
+      </c>
+      <c r="J50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K50" t="s">
+        <v>446</v>
+      </c>
+      <c r="L50" t="s">
+        <v>447</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>448</v>
+      </c>
+      <c r="O50" t="s">
+        <v>76</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>449</v>
+      </c>
+      <c r="X50" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>452</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>453</v>
+      </c>
+      <c r="J51" t="s">
+        <v>454</v>
+      </c>
+      <c r="K51" t="s">
+        <v>455</v>
+      </c>
+      <c r="L51" t="s">
+        <v>456</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>441</v>
+      </c>
+      <c r="O51" t="s">
+        <v>168</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>457</v>
+      </c>
+      <c r="X51" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>460</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>461</v>
+      </c>
+      <c r="J52" t="s">
+        <v>462</v>
+      </c>
+      <c r="K52" t="s">
+        <v>463</v>
+      </c>
+      <c r="L52" t="s">
+        <v>464</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>441</v>
+      </c>
+      <c r="O52" t="s">
+        <v>51</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>457</v>
+      </c>
+      <c r="X52" t="s">
+        <v>458</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>466</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>467</v>
+      </c>
+      <c r="J53" t="s">
+        <v>462</v>
+      </c>
+      <c r="K53" t="s">
+        <v>468</v>
+      </c>
+      <c r="L53" t="s">
+        <v>469</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>441</v>
+      </c>
+      <c r="O53" t="s">
+        <v>66</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>419</v>
+      </c>
+      <c r="X53" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>471</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>472</v>
+      </c>
+      <c r="J54" t="s">
+        <v>473</v>
+      </c>
+      <c r="K54" t="s">
+        <v>474</v>
+      </c>
+      <c r="L54" t="s">
+        <v>475</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>441</v>
+      </c>
+      <c r="O54" t="s">
+        <v>99</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>476</v>
+      </c>
+      <c r="X54" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>480</v>
+      </c>
+      <c r="J55" t="s">
+        <v>481</v>
+      </c>
+      <c r="K55" t="s">
+        <v>482</v>
+      </c>
+      <c r="L55" t="s">
+        <v>483</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>484</v>
+      </c>
+      <c r="O55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>476</v>
+      </c>
+      <c r="X55" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>486</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>487</v>
+      </c>
+      <c r="J56" t="s">
+        <v>488</v>
+      </c>
+      <c r="K56" t="s">
+        <v>489</v>
+      </c>
+      <c r="L56" t="s">
+        <v>490</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>484</v>
+      </c>
+      <c r="O56" t="s">
+        <v>76</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>476</v>
+      </c>
+      <c r="X56" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>492</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>493</v>
+      </c>
+      <c r="J57" t="s">
+        <v>494</v>
+      </c>
+      <c r="K57" t="s">
+        <v>495</v>
+      </c>
+      <c r="L57" t="s">
+        <v>496</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>497</v>
+      </c>
+      <c r="O57" t="s">
+        <v>51</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>498</v>
+      </c>
+      <c r="X57" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>501</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>502</v>
+      </c>
+      <c r="J58" t="s">
+        <v>503</v>
+      </c>
+      <c r="K58" t="s">
+        <v>504</v>
+      </c>
+      <c r="L58" t="s">
+        <v>505</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>506</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>507</v>
+      </c>
+      <c r="X58" t="s">
+        <v>508</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>510</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>511</v>
+      </c>
+      <c r="J59" t="s">
+        <v>512</v>
+      </c>
+      <c r="K59" t="s">
+        <v>513</v>
+      </c>
+      <c r="L59" t="s">
+        <v>514</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>515</v>
+      </c>
+      <c r="X59" t="s">
+        <v>516</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>518</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>519</v>
+      </c>
+      <c r="J60" t="s">
+        <v>520</v>
+      </c>
+      <c r="K60" t="s">
+        <v>521</v>
+      </c>
+      <c r="L60" t="s">
+        <v>522</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>497</v>
+      </c>
+      <c r="O60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>523</v>
+      </c>
+      <c r="X60" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>526</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>527</v>
+      </c>
+      <c r="J61" t="s">
+        <v>528</v>
+      </c>
+      <c r="K61" t="s">
+        <v>529</v>
+      </c>
+      <c r="L61" t="s">
+        <v>530</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>497</v>
+      </c>
+      <c r="O61" t="s">
+        <v>76</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>523</v>
+      </c>
+      <c r="X61" t="s">
+        <v>524</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>532</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>533</v>
+      </c>
+      <c r="J62" t="s">
+        <v>534</v>
+      </c>
+      <c r="K62" t="s">
+        <v>535</v>
+      </c>
+      <c r="L62" t="s">
+        <v>536</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>448</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>537</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>538</v>
+      </c>
+      <c r="J63" t="s">
+        <v>539</v>
+      </c>
+      <c r="K63" t="s">
+        <v>540</v>
+      </c>
+      <c r="L63" t="s">
+        <v>541</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>448</v>
+      </c>
+      <c r="O63" t="s">
+        <v>51</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>542</v>
+      </c>
+      <c r="X63" t="s">
+        <v>543</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>545</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>546</v>
+      </c>
+      <c r="J64" t="s">
+        <v>547</v>
+      </c>
+      <c r="K64" t="s">
+        <v>548</v>
+      </c>
+      <c r="L64" t="s">
+        <v>549</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>448</v>
+      </c>
+      <c r="O64" t="s">
+        <v>76</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>550</v>
+      </c>
+      <c r="X64" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>553</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>554</v>
+      </c>
+      <c r="J65" t="s">
+        <v>555</v>
+      </c>
+      <c r="K65" t="s">
+        <v>556</v>
+      </c>
+      <c r="L65" t="s">
+        <v>557</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>448</v>
+      </c>
+      <c r="O65" t="s">
+        <v>76</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>558</v>
+      </c>
+      <c r="X65" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>561</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>562</v>
+      </c>
+      <c r="J66" t="s">
+        <v>563</v>
+      </c>
+      <c r="K66" t="s">
+        <v>564</v>
+      </c>
+      <c r="L66" t="s">
+        <v>565</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>448</v>
+      </c>
+      <c r="O66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>566</v>
+      </c>
+      <c r="X66" t="s">
+        <v>567</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>569</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>570</v>
+      </c>
+      <c r="J67" t="s">
+        <v>571</v>
+      </c>
+      <c r="K67" t="s">
+        <v>572</v>
+      </c>
+      <c r="L67" t="s">
+        <v>573</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>448</v>
+      </c>
+      <c r="O67" t="s">
+        <v>76</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>574</v>
+      </c>
+      <c r="X67" t="s">
+        <v>575</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>577</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>578</v>
+      </c>
+      <c r="J68" t="s">
+        <v>579</v>
+      </c>
+      <c r="K68" t="s">
+        <v>580</v>
+      </c>
+      <c r="L68" t="s">
+        <v>581</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>448</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>582</v>
+      </c>
+      <c r="X68" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>585</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>586</v>
+      </c>
+      <c r="J69" t="s">
+        <v>587</v>
+      </c>
+      <c r="K69" t="s">
+        <v>588</v>
+      </c>
+      <c r="L69" t="s">
+        <v>589</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>590</v>
+      </c>
+      <c r="O69" t="s">
+        <v>76</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="s"/>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>582</v>
+      </c>
+      <c r="X69" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>592</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>593</v>
+      </c>
+      <c r="J70" t="s">
+        <v>594</v>
+      </c>
+      <c r="K70" t="s">
+        <v>595</v>
+      </c>
+      <c r="L70" t="s">
+        <v>596</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>590</v>
+      </c>
+      <c r="O70" t="s">
+        <v>76</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>582</v>
+      </c>
+      <c r="X70" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>598</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>599</v>
+      </c>
+      <c r="J71" t="s">
+        <v>600</v>
+      </c>
+      <c r="K71" t="s">
+        <v>601</v>
+      </c>
+      <c r="L71" t="s">
+        <v>602</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>603</v>
+      </c>
+      <c r="O71" t="s">
+        <v>168</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>604</v>
+      </c>
+      <c r="X71" t="s">
+        <v>605</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>607</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>608</v>
+      </c>
+      <c r="J72" t="s">
+        <v>609</v>
+      </c>
+      <c r="K72" t="s">
+        <v>610</v>
+      </c>
+      <c r="L72" t="s">
+        <v>611</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>603</v>
+      </c>
+      <c r="O72" t="s">
+        <v>51</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>582</v>
+      </c>
+      <c r="X72" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>613</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>614</v>
+      </c>
+      <c r="J73" t="s">
+        <v>615</v>
+      </c>
+      <c r="K73" t="s">
+        <v>616</v>
+      </c>
+      <c r="L73" t="s">
+        <v>617</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>618</v>
+      </c>
+      <c r="O73" t="s">
+        <v>168</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="s"/>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>619</v>
+      </c>
+      <c r="X73" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>622</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>623</v>
+      </c>
+      <c r="J74" t="s">
+        <v>624</v>
+      </c>
+      <c r="K74" t="s">
+        <v>625</v>
+      </c>
+      <c r="L74" t="s">
+        <v>626</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>618</v>
+      </c>
+      <c r="O74" t="s">
+        <v>168</v>
+      </c>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>627</v>
+      </c>
+      <c r="X74" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>630</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>631</v>
+      </c>
+      <c r="J75" t="s">
+        <v>632</v>
+      </c>
+      <c r="K75" t="s">
+        <v>633</v>
+      </c>
+      <c r="L75" t="s">
+        <v>634</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>618</v>
+      </c>
+      <c r="O75" t="s">
+        <v>76</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>635</v>
+      </c>
+      <c r="X75" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>638</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>639</v>
+      </c>
+      <c r="J76" t="s">
+        <v>640</v>
+      </c>
+      <c r="K76" t="s">
+        <v>641</v>
+      </c>
+      <c r="L76" t="s">
+        <v>642</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>618</v>
+      </c>
+      <c r="O76" t="s">
+        <v>76</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>643</v>
+      </c>
+      <c r="X76" t="s">
+        <v>644</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>646</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>647</v>
+      </c>
+      <c r="J77" t="s">
+        <v>648</v>
+      </c>
+      <c r="K77" t="s">
+        <v>455</v>
+      </c>
+      <c r="L77" t="s">
+        <v>649</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>618</v>
+      </c>
+      <c r="O77" t="s">
+        <v>168</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>650</v>
+      </c>
+      <c r="X77" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>653</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>654</v>
+      </c>
+      <c r="J78" t="s">
+        <v>655</v>
+      </c>
+      <c r="K78" t="s">
+        <v>656</v>
+      </c>
+      <c r="L78" t="s">
+        <v>657</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>618</v>
+      </c>
+      <c r="O78" t="s">
+        <v>168</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>658</v>
+      </c>
+      <c r="X78" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>661</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>662</v>
+      </c>
+      <c r="J79" t="s">
+        <v>663</v>
+      </c>
+      <c r="K79" t="s">
+        <v>664</v>
+      </c>
+      <c r="L79" t="s">
+        <v>665</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>618</v>
+      </c>
+      <c r="O79" t="s">
+        <v>51</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>658</v>
+      </c>
+      <c r="X79" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>667</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>668</v>
+      </c>
+      <c r="J80" t="s">
+        <v>669</v>
+      </c>
+      <c r="K80" t="s">
+        <v>670</v>
+      </c>
+      <c r="L80" t="s">
+        <v>671</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>618</v>
+      </c>
+      <c r="O80" t="s">
+        <v>76</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>650</v>
+      </c>
+      <c r="X80" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64368</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>673</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>674</v>
+      </c>
+      <c r="J81" t="s">
+        <v>675</v>
+      </c>
+      <c r="K81" t="s">
+        <v>676</v>
+      </c>
+      <c r="L81" t="s">
+        <v>677</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>678</v>
+      </c>
+      <c r="O81" t="s">
+        <v>76</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>650</v>
+      </c>
+      <c r="X81" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>
